--- a/apps/load_data/2022/10/PLMOVMAE.xlsx
+++ b/apps/load_data/2022/10/PLMOVMAE.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NOMBRADOS -2022\HHY1022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2022-\HHY1022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2925DCE7-B31D-423C-BC49-7085A10AC289}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD6FBE-B824-420E-8226-68BECA5BD021}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13050" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PLMOVMAE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PLMOVMAE!$A$1:$CJ$278</definedName>
     <definedName name="_xlnm.Database">PLMOVMAE!$A$1:$CJ$278</definedName>
   </definedNames>
   <calcPr calcId="0"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11995" uniqueCount="3239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11975" uniqueCount="3236">
   <si>
     <t>CODEJE</t>
   </si>
@@ -6703,9 +6704,6 @@
     <t>08771747</t>
   </si>
   <si>
-    <t>S/N</t>
-  </si>
-  <si>
     <t>Mjhjfeeh11111d1flüjmhhfkgkech</t>
   </si>
   <si>
@@ -7879,9 +7877,6 @@
     <t>06567208</t>
   </si>
   <si>
-    <t>S/M</t>
-  </si>
-  <si>
     <t>6501080BIHTE003</t>
   </si>
   <si>
@@ -8183,9 +8178,6 @@
   </si>
   <si>
     <t>09842316</t>
-  </si>
-  <si>
-    <t>SUSPENSION</t>
   </si>
   <si>
     <t>7306280HYLAM000</t>
@@ -9745,7 +9737,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -10585,10 +10577,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CJ278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AD232" sqref="AC171:AD232"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -42668,12 +42662,7 @@
       <c r="AB171" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC171" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD171" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC171" s="3"/>
       <c r="AF171" s="1" t="s">
         <v>108</v>
       </c>
@@ -42726,16 +42715,16 @@
         <v>22</v>
       </c>
       <c r="BD171" s="1" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="BG171" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH171" s="1" t="s">
+        <v>2227</v>
+      </c>
+      <c r="BI171" s="1" t="s">
         <v>2228</v>
-      </c>
-      <c r="BI171" s="1" t="s">
-        <v>2229</v>
       </c>
       <c r="BN171" s="1" t="s">
         <v>118</v>
@@ -42750,13 +42739,13 @@
         <v>160</v>
       </c>
       <c r="BS171" s="1" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="BT171" s="3">
         <v>36225</v>
       </c>
       <c r="BU171" s="1" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="BV171" s="1" t="s">
         <v>122</v>
@@ -42777,19 +42766,19 @@
         <v>102</v>
       </c>
       <c r="CD171" s="1" t="s">
+        <v>2231</v>
+      </c>
+      <c r="CE171" s="1" t="s">
         <v>2232</v>
       </c>
-      <c r="CE171" s="1" t="s">
+      <c r="CF171" s="1" t="s">
         <v>2233</v>
       </c>
-      <c r="CF171" s="1" t="s">
+      <c r="CH171" s="1" t="s">
         <v>2234</v>
       </c>
-      <c r="CH171" s="1" t="s">
+      <c r="CI171" s="1" t="s">
         <v>2235</v>
-      </c>
-      <c r="CI171" s="1" t="s">
-        <v>2236</v>
       </c>
       <c r="CJ171" s="1" t="s">
         <v>130</v>
@@ -42827,13 +42816,13 @@
         <v>97</v>
       </c>
       <c r="K172" s="1" t="s">
+        <v>2236</v>
+      </c>
+      <c r="L172" s="1" t="s">
         <v>2237</v>
       </c>
-      <c r="L172" s="1" t="s">
+      <c r="N172" s="1" t="s">
         <v>2238</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>2239</v>
       </c>
       <c r="O172" s="1" t="s">
         <v>101</v>
@@ -42868,12 +42857,7 @@
       <c r="AB172" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="AC172" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD172" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC172" s="3"/>
       <c r="AF172" s="1" t="s">
         <v>108</v>
       </c>
@@ -42920,7 +42904,7 @@
         <v>102</v>
       </c>
       <c r="AZ172" s="1" t="s">
-        <v>2240</v>
+        <v>2239</v>
       </c>
       <c r="BB172" s="1">
         <v>10</v>
@@ -42929,13 +42913,13 @@
         <v>22</v>
       </c>
       <c r="BD172" s="1" t="s">
-        <v>2241</v>
+        <v>2240</v>
       </c>
       <c r="BG172" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH172" s="1" t="s">
-        <v>2242</v>
+        <v>2241</v>
       </c>
       <c r="BI172" s="1" t="s">
         <v>1614</v>
@@ -42950,13 +42934,13 @@
         <v>103</v>
       </c>
       <c r="BS172" s="1" t="s">
-        <v>2243</v>
+        <v>2242</v>
       </c>
       <c r="BT172" s="3">
         <v>36949</v>
       </c>
       <c r="BU172" s="1" t="s">
-        <v>2244</v>
+        <v>2243</v>
       </c>
       <c r="BV172" s="1" t="s">
         <v>122</v>
@@ -42980,16 +42964,16 @@
         <v>102</v>
       </c>
       <c r="CD172" s="1" t="s">
-        <v>2245</v>
+        <v>2244</v>
       </c>
       <c r="CE172" s="1" t="s">
         <v>1937</v>
       </c>
       <c r="CF172" s="1" t="s">
+        <v>2245</v>
+      </c>
+      <c r="CH172" s="1" t="s">
         <v>2246</v>
-      </c>
-      <c r="CH172" s="1" t="s">
-        <v>2247</v>
       </c>
       <c r="CI172" s="1" t="s">
         <v>1620</v>
@@ -43030,10 +43014,10 @@
         <v>97</v>
       </c>
       <c r="K173" s="1" t="s">
+        <v>2247</v>
+      </c>
+      <c r="L173" s="1" t="s">
         <v>2248</v>
-      </c>
-      <c r="L173" s="1" t="s">
-        <v>2249</v>
       </c>
       <c r="O173" s="1" t="s">
         <v>101</v>
@@ -43059,12 +43043,7 @@
       <c r="AB173" s="1" t="s">
         <v>1206</v>
       </c>
-      <c r="AC173" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD173" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC173" s="3"/>
       <c r="AF173" s="1" t="s">
         <v>108</v>
       </c>
@@ -43111,7 +43090,7 @@
         <v>102</v>
       </c>
       <c r="AZ173" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BB173" s="1">
         <v>5</v>
@@ -43120,7 +43099,7 @@
         <v>22</v>
       </c>
       <c r="BD173" s="1" t="s">
-        <v>2251</v>
+        <v>2250</v>
       </c>
       <c r="BN173" s="1" t="s">
         <v>118</v>
@@ -43156,10 +43135,10 @@
         <v>102</v>
       </c>
       <c r="CD173" s="1" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="CH173" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="CI173" s="1" t="s">
         <v>130</v>
@@ -43200,13 +43179,13 @@
         <v>97</v>
       </c>
       <c r="K174" s="1" t="s">
+        <v>2252</v>
+      </c>
+      <c r="L174" s="1" t="s">
         <v>2253</v>
       </c>
-      <c r="L174" s="1" t="s">
+      <c r="N174" s="1" t="s">
         <v>2254</v>
-      </c>
-      <c r="N174" s="1" t="s">
-        <v>2255</v>
       </c>
       <c r="O174" s="1" t="s">
         <v>101</v>
@@ -43238,12 +43217,7 @@
       <c r="AA174" s="1">
         <v>0</v>
       </c>
-      <c r="AC174" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD174" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC174" s="3"/>
       <c r="AF174" s="1" t="s">
         <v>108</v>
       </c>
@@ -43293,7 +43267,7 @@
         <v>102</v>
       </c>
       <c r="AZ174" s="1" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="BB174" s="1">
         <v>10</v>
@@ -43302,13 +43276,13 @@
         <v>22</v>
       </c>
       <c r="BD174" s="1" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="BG174" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH174" s="1" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="BN174" s="1" t="s">
         <v>118</v>
@@ -43317,7 +43291,7 @@
         <v>107</v>
       </c>
       <c r="BU174" s="1" t="s">
-        <v>2259</v>
+        <v>2258</v>
       </c>
       <c r="BV174" s="1" t="s">
         <v>122</v>
@@ -43335,16 +43309,16 @@
         <v>102</v>
       </c>
       <c r="CD174" s="1" t="s">
-        <v>2260</v>
+        <v>2259</v>
       </c>
       <c r="CE174" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="CF174" s="1" t="s">
+        <v>2260</v>
+      </c>
+      <c r="CH174" s="1" t="s">
         <v>2261</v>
-      </c>
-      <c r="CH174" s="1" t="s">
-        <v>2262</v>
       </c>
       <c r="CI174" s="1" t="s">
         <v>130</v>
@@ -43385,13 +43359,13 @@
         <v>97</v>
       </c>
       <c r="K175" s="1" t="s">
+        <v>2262</v>
+      </c>
+      <c r="L175" s="1" t="s">
         <v>2263</v>
       </c>
-      <c r="L175" s="1" t="s">
+      <c r="N175" s="1" t="s">
         <v>2264</v>
-      </c>
-      <c r="N175" s="1" t="s">
-        <v>2265</v>
       </c>
       <c r="O175" s="1" t="s">
         <v>101</v>
@@ -43426,12 +43400,7 @@
       <c r="AB175" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC175" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD175" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC175" s="3"/>
       <c r="AF175" s="1" t="s">
         <v>108</v>
       </c>
@@ -43481,7 +43450,7 @@
         <v>102</v>
       </c>
       <c r="AZ175" s="1" t="s">
-        <v>2266</v>
+        <v>2265</v>
       </c>
       <c r="BB175" s="1">
         <v>10</v>
@@ -43490,13 +43459,13 @@
         <v>22</v>
       </c>
       <c r="BD175" s="1" t="s">
-        <v>2267</v>
+        <v>2266</v>
       </c>
       <c r="BG175" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH175" s="1" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="BN175" s="1" t="s">
         <v>118</v>
@@ -43505,7 +43474,7 @@
         <v>107</v>
       </c>
       <c r="BU175" s="1" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="BV175" s="1" t="s">
         <v>122</v>
@@ -43526,13 +43495,13 @@
         <v>655</v>
       </c>
       <c r="CE175" s="1" t="s">
+        <v>2269</v>
+      </c>
+      <c r="CF175" s="1" t="s">
         <v>2270</v>
       </c>
-      <c r="CF175" s="1" t="s">
+      <c r="CH175" s="1" t="s">
         <v>2271</v>
-      </c>
-      <c r="CH175" s="1" t="s">
-        <v>2272</v>
       </c>
       <c r="CI175" s="1" t="s">
         <v>130</v>
@@ -43573,13 +43542,13 @@
         <v>97</v>
       </c>
       <c r="K176" s="1" t="s">
+        <v>2272</v>
+      </c>
+      <c r="L176" s="1" t="s">
         <v>2273</v>
       </c>
-      <c r="L176" s="1" t="s">
+      <c r="N176" s="1" t="s">
         <v>2274</v>
-      </c>
-      <c r="N176" s="1" t="s">
-        <v>2275</v>
       </c>
       <c r="O176" s="1" t="s">
         <v>101</v>
@@ -43611,12 +43580,7 @@
       <c r="AA176" s="1">
         <v>0</v>
       </c>
-      <c r="AC176" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD176" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC176" s="3"/>
       <c r="AF176" s="1" t="s">
         <v>108</v>
       </c>
@@ -43666,7 +43630,7 @@
         <v>102</v>
       </c>
       <c r="AZ176" s="1" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="BB176" s="1">
         <v>10</v>
@@ -43675,16 +43639,16 @@
         <v>22</v>
       </c>
       <c r="BD176" s="1" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="BG176" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH176" s="1" t="s">
+        <v>2277</v>
+      </c>
+      <c r="BI176" s="1" t="s">
         <v>2278</v>
-      </c>
-      <c r="BI176" s="1" t="s">
-        <v>2279</v>
       </c>
       <c r="BN176" s="1" t="s">
         <v>118</v>
@@ -43693,7 +43657,7 @@
         <v>107</v>
       </c>
       <c r="BU176" s="1" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="BV176" s="1" t="s">
         <v>122</v>
@@ -43711,19 +43675,19 @@
         <v>102</v>
       </c>
       <c r="CD176" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="CE176" s="1" t="s">
+        <v>2280</v>
+      </c>
+      <c r="CF176" s="1" t="s">
         <v>2281</v>
       </c>
-      <c r="CE176" s="1" t="s">
-        <v>2281</v>
-      </c>
-      <c r="CF176" s="1" t="s">
+      <c r="CH176" s="1" t="s">
         <v>2282</v>
       </c>
-      <c r="CH176" s="1" t="s">
+      <c r="CI176" s="1" t="s">
         <v>2283</v>
-      </c>
-      <c r="CI176" s="1" t="s">
-        <v>2284</v>
       </c>
       <c r="CJ176" s="1" t="s">
         <v>130</v>
@@ -43761,13 +43725,13 @@
         <v>97</v>
       </c>
       <c r="K177" s="1" t="s">
+        <v>2284</v>
+      </c>
+      <c r="L177" s="1" t="s">
         <v>2285</v>
       </c>
-      <c r="L177" s="1" t="s">
+      <c r="N177" s="1" t="s">
         <v>2286</v>
-      </c>
-      <c r="N177" s="1" t="s">
-        <v>2287</v>
       </c>
       <c r="O177" s="1" t="s">
         <v>101</v>
@@ -43808,12 +43772,7 @@
       <c r="AB177" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC177" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD177" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC177" s="3"/>
       <c r="AF177" s="1" t="s">
         <v>108</v>
       </c>
@@ -43860,7 +43819,7 @@
         <v>102</v>
       </c>
       <c r="AZ177" s="1" t="s">
-        <v>2288</v>
+        <v>2287</v>
       </c>
       <c r="BB177" s="1">
         <v>10</v>
@@ -43869,16 +43828,16 @@
         <v>22</v>
       </c>
       <c r="BD177" s="1" t="s">
-        <v>2289</v>
+        <v>2288</v>
       </c>
       <c r="BG177" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH177" s="1" t="s">
+        <v>2289</v>
+      </c>
+      <c r="BI177" s="1" t="s">
         <v>2290</v>
-      </c>
-      <c r="BI177" s="1" t="s">
-        <v>2291</v>
       </c>
       <c r="BN177" s="1" t="s">
         <v>118</v>
@@ -43890,13 +43849,13 @@
         <v>119</v>
       </c>
       <c r="BS177" s="1" t="s">
-        <v>2292</v>
+        <v>2291</v>
       </c>
       <c r="BT177" s="3">
         <v>35243</v>
       </c>
       <c r="BU177" s="1" t="s">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="BV177" s="1" t="s">
         <v>122</v>
@@ -43914,19 +43873,19 @@
         <v>102</v>
       </c>
       <c r="CD177" s="1" t="s">
+        <v>2293</v>
+      </c>
+      <c r="CE177" s="1" t="s">
         <v>2294</v>
       </c>
-      <c r="CE177" s="1" t="s">
+      <c r="CF177" s="1" t="s">
         <v>2295</v>
       </c>
-      <c r="CF177" s="1" t="s">
+      <c r="CH177" s="1" t="s">
         <v>2296</v>
       </c>
-      <c r="CH177" s="1" t="s">
+      <c r="CI177" s="1" t="s">
         <v>2297</v>
-      </c>
-      <c r="CI177" s="1" t="s">
-        <v>2298</v>
       </c>
       <c r="CJ177" s="1" t="s">
         <v>130</v>
@@ -43964,13 +43923,13 @@
         <v>97</v>
       </c>
       <c r="K178" s="1" t="s">
+        <v>2298</v>
+      </c>
+      <c r="L178" s="1" t="s">
         <v>2299</v>
       </c>
-      <c r="L178" s="1" t="s">
+      <c r="N178" s="1" t="s">
         <v>2300</v>
-      </c>
-      <c r="N178" s="1" t="s">
-        <v>2301</v>
       </c>
       <c r="O178" s="1" t="s">
         <v>101</v>
@@ -44002,12 +43961,7 @@
       <c r="AA178" s="1">
         <v>0</v>
       </c>
-      <c r="AC178" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD178" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC178" s="3"/>
       <c r="AF178" s="1" t="s">
         <v>108</v>
       </c>
@@ -44057,7 +44011,7 @@
         <v>102</v>
       </c>
       <c r="AZ178" s="1" t="s">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="BB178" s="1">
         <v>10</v>
@@ -44066,13 +44020,13 @@
         <v>22</v>
       </c>
       <c r="BD178" s="1" t="s">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="BG178" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH178" s="1" t="s">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="BI178" s="1" t="s">
         <v>1124</v>
@@ -44084,7 +44038,7 @@
         <v>107</v>
       </c>
       <c r="BU178" s="1" t="s">
-        <v>2305</v>
+        <v>2304</v>
       </c>
       <c r="BV178" s="1" t="s">
         <v>122</v>
@@ -44102,16 +44056,16 @@
         <v>102</v>
       </c>
       <c r="CD178" s="1" t="s">
+        <v>2305</v>
+      </c>
+      <c r="CE178" s="1" t="s">
         <v>2306</v>
       </c>
-      <c r="CE178" s="1" t="s">
+      <c r="CF178" s="1" t="s">
         <v>2307</v>
       </c>
-      <c r="CF178" s="1" t="s">
+      <c r="CH178" s="1" t="s">
         <v>2308</v>
-      </c>
-      <c r="CH178" s="1" t="s">
-        <v>2309</v>
       </c>
       <c r="CI178" s="1" t="s">
         <v>1130</v>
@@ -44152,13 +44106,13 @@
         <v>97</v>
       </c>
       <c r="K179" s="1" t="s">
+        <v>2309</v>
+      </c>
+      <c r="L179" s="1" t="s">
         <v>2310</v>
       </c>
-      <c r="L179" s="1" t="s">
+      <c r="N179" s="1" t="s">
         <v>2311</v>
-      </c>
-      <c r="N179" s="1" t="s">
-        <v>2312</v>
       </c>
       <c r="O179" s="1" t="s">
         <v>101</v>
@@ -44190,12 +44144,7 @@
       <c r="AA179" s="1">
         <v>0</v>
       </c>
-      <c r="AC179" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD179" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC179" s="3"/>
       <c r="AF179" s="1" t="s">
         <v>108</v>
       </c>
@@ -44245,7 +44194,7 @@
         <v>102</v>
       </c>
       <c r="AZ179" s="1" t="s">
-        <v>2313</v>
+        <v>2312</v>
       </c>
       <c r="BB179" s="1">
         <v>10</v>
@@ -44254,16 +44203,16 @@
         <v>22</v>
       </c>
       <c r="BD179" s="1" t="s">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="BG179" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH179" s="1" t="s">
-        <v>2315</v>
+        <v>2314</v>
       </c>
       <c r="BI179" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BN179" s="1" t="s">
         <v>118</v>
@@ -44275,7 +44224,7 @@
         <v>160</v>
       </c>
       <c r="BU179" s="1" t="s">
-        <v>2316</v>
+        <v>2315</v>
       </c>
       <c r="BV179" s="1" t="s">
         <v>122</v>
@@ -44293,19 +44242,19 @@
         <v>102</v>
       </c>
       <c r="CD179" s="1" t="s">
+        <v>2316</v>
+      </c>
+      <c r="CE179" s="1" t="s">
         <v>2317</v>
       </c>
-      <c r="CE179" s="1" t="s">
+      <c r="CF179" s="1" t="s">
         <v>2318</v>
       </c>
-      <c r="CF179" s="1" t="s">
+      <c r="CH179" s="1" t="s">
         <v>2319</v>
       </c>
-      <c r="CH179" s="1" t="s">
-        <v>2320</v>
-      </c>
       <c r="CI179" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="CJ179" s="1" t="s">
         <v>130</v>
@@ -44337,19 +44286,19 @@
         <v>95</v>
       </c>
       <c r="I180" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K180" s="1" t="s">
+        <v>2321</v>
+      </c>
+      <c r="L180" s="1" t="s">
         <v>2322</v>
       </c>
-      <c r="L180" s="1" t="s">
+      <c r="N180" s="1" t="s">
         <v>2323</v>
-      </c>
-      <c r="N180" s="1" t="s">
-        <v>2324</v>
       </c>
       <c r="O180" s="1" t="s">
         <v>101</v>
@@ -44384,12 +44333,7 @@
       <c r="AA180" s="1">
         <v>0</v>
       </c>
-      <c r="AC180" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD180" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC180" s="3"/>
       <c r="AF180" s="1" t="s">
         <v>108</v>
       </c>
@@ -44439,7 +44383,7 @@
         <v>102</v>
       </c>
       <c r="AZ180" s="1" t="s">
-        <v>2325</v>
+        <v>2324</v>
       </c>
       <c r="BB180" s="1">
         <v>10</v>
@@ -44448,13 +44392,13 @@
         <v>22</v>
       </c>
       <c r="BD180" s="1" t="s">
-        <v>2326</v>
+        <v>2325</v>
       </c>
       <c r="BG180" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH180" s="1" t="s">
-        <v>2327</v>
+        <v>2326</v>
       </c>
       <c r="BI180" s="1" t="s">
         <v>363</v>
@@ -44466,7 +44410,7 @@
         <v>107</v>
       </c>
       <c r="BU180" s="1" t="s">
-        <v>2328</v>
+        <v>2327</v>
       </c>
       <c r="BV180" s="1" t="s">
         <v>122</v>
@@ -44478,7 +44422,7 @@
         <v>112</v>
       </c>
       <c r="CA180" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="CB180" s="1" t="s">
         <v>124</v>
@@ -44487,16 +44431,16 @@
         <v>102</v>
       </c>
       <c r="CD180" s="1" t="s">
+        <v>2329</v>
+      </c>
+      <c r="CE180" s="1" t="s">
         <v>2330</v>
       </c>
-      <c r="CE180" s="1" t="s">
+      <c r="CF180" s="1" t="s">
         <v>2331</v>
       </c>
-      <c r="CF180" s="1" t="s">
+      <c r="CH180" s="1" t="s">
         <v>2332</v>
-      </c>
-      <c r="CH180" s="1" t="s">
-        <v>2333</v>
       </c>
       <c r="CI180" s="1" t="s">
         <v>370</v>
@@ -44537,13 +44481,13 @@
         <v>97</v>
       </c>
       <c r="K181" s="1" t="s">
+        <v>2333</v>
+      </c>
+      <c r="L181" s="1" t="s">
         <v>2334</v>
       </c>
-      <c r="L181" s="1" t="s">
+      <c r="N181" s="1" t="s">
         <v>2335</v>
-      </c>
-      <c r="N181" s="1" t="s">
-        <v>2336</v>
       </c>
       <c r="O181" s="1" t="s">
         <v>101</v>
@@ -44575,12 +44519,7 @@
       <c r="AA181" s="1">
         <v>0</v>
       </c>
-      <c r="AC181" s="3">
-        <v>42309</v>
-      </c>
-      <c r="AD181" s="1" t="s">
-        <v>2226</v>
-      </c>
+      <c r="AC181" s="3"/>
       <c r="AF181" s="1" t="s">
         <v>108</v>
       </c>
@@ -44627,7 +44566,7 @@
         <v>102</v>
       </c>
       <c r="AZ181" s="1" t="s">
-        <v>2337</v>
+        <v>2336</v>
       </c>
       <c r="BB181" s="1">
         <v>10</v>
@@ -44636,16 +44575,16 @@
         <v>22</v>
       </c>
       <c r="BD181" s="1" t="s">
-        <v>2338</v>
+        <v>2337</v>
       </c>
       <c r="BG181" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH181" s="1" t="s">
+        <v>2338</v>
+      </c>
+      <c r="BI181" s="1" t="s">
         <v>2339</v>
-      </c>
-      <c r="BI181" s="1" t="s">
-        <v>2340</v>
       </c>
       <c r="BN181" s="1" t="s">
         <v>118</v>
@@ -44657,13 +44596,13 @@
         <v>119</v>
       </c>
       <c r="BS181" s="1" t="s">
-        <v>2341</v>
+        <v>2340</v>
       </c>
       <c r="BT181" s="3">
         <v>35950</v>
       </c>
       <c r="BU181" s="1" t="s">
-        <v>2342</v>
+        <v>2341</v>
       </c>
       <c r="BV181" s="1" t="s">
         <v>122</v>
@@ -44681,19 +44620,19 @@
         <v>102</v>
       </c>
       <c r="CD181" s="1" t="s">
-        <v>2343</v>
+        <v>2342</v>
       </c>
       <c r="CE181" s="1" t="s">
         <v>1753</v>
       </c>
       <c r="CF181" s="1" t="s">
+        <v>2343</v>
+      </c>
+      <c r="CH181" s="1" t="s">
         <v>2344</v>
       </c>
-      <c r="CH181" s="1" t="s">
+      <c r="CI181" s="1" t="s">
         <v>2345</v>
-      </c>
-      <c r="CI181" s="1" t="s">
-        <v>2346</v>
       </c>
       <c r="CJ181" s="1" t="s">
         <v>130</v>
@@ -44731,13 +44670,13 @@
         <v>97</v>
       </c>
       <c r="K182" s="1" t="s">
+        <v>2346</v>
+      </c>
+      <c r="L182" s="1" t="s">
         <v>2347</v>
       </c>
-      <c r="L182" s="1" t="s">
+      <c r="N182" s="1" t="s">
         <v>2348</v>
-      </c>
-      <c r="N182" s="1" t="s">
-        <v>2349</v>
       </c>
       <c r="O182" s="1" t="s">
         <v>101</v>
@@ -44821,7 +44760,7 @@
         <v>102</v>
       </c>
       <c r="AZ182" s="1" t="s">
-        <v>2350</v>
+        <v>2349</v>
       </c>
       <c r="BB182" s="1">
         <v>10</v>
@@ -44830,13 +44769,13 @@
         <v>22</v>
       </c>
       <c r="BD182" s="1" t="s">
-        <v>2351</v>
+        <v>2350</v>
       </c>
       <c r="BG182" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH182" s="1" t="s">
-        <v>2352</v>
+        <v>2351</v>
       </c>
       <c r="BI182" s="1" t="s">
         <v>1797</v>
@@ -44851,7 +44790,7 @@
         <v>160</v>
       </c>
       <c r="BU182" s="1" t="s">
-        <v>2353</v>
+        <v>2352</v>
       </c>
       <c r="BV182" s="1" t="s">
         <v>122</v>
@@ -44869,16 +44808,16 @@
         <v>102</v>
       </c>
       <c r="CD182" s="1" t="s">
-        <v>2354</v>
+        <v>2353</v>
       </c>
       <c r="CE182" s="1" t="s">
         <v>406</v>
       </c>
       <c r="CF182" s="1" t="s">
+        <v>2354</v>
+      </c>
+      <c r="CH182" s="1" t="s">
         <v>2355</v>
-      </c>
-      <c r="CH182" s="1" t="s">
-        <v>2356</v>
       </c>
       <c r="CI182" s="1" t="s">
         <v>1801</v>
@@ -44919,13 +44858,13 @@
         <v>97</v>
       </c>
       <c r="K183" s="1" t="s">
+        <v>2356</v>
+      </c>
+      <c r="L183" s="1" t="s">
         <v>2357</v>
       </c>
-      <c r="L183" s="1" t="s">
+      <c r="N183" s="1" t="s">
         <v>2358</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>2359</v>
       </c>
       <c r="O183" s="1" t="s">
         <v>101</v>
@@ -45003,7 +44942,7 @@
         <v>102</v>
       </c>
       <c r="AZ183" s="1" t="s">
-        <v>2360</v>
+        <v>2359</v>
       </c>
       <c r="BB183" s="1">
         <v>10</v>
@@ -45012,13 +44951,13 @@
         <v>22</v>
       </c>
       <c r="BD183" s="1" t="s">
-        <v>2361</v>
+        <v>2360</v>
       </c>
       <c r="BG183" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH183" s="1" t="s">
-        <v>2362</v>
+        <v>2361</v>
       </c>
       <c r="BI183" s="1" t="s">
         <v>1807</v>
@@ -45033,13 +44972,13 @@
         <v>216</v>
       </c>
       <c r="BS183" s="1" t="s">
-        <v>2363</v>
+        <v>2362</v>
       </c>
       <c r="BT183" s="3">
         <v>36099</v>
       </c>
       <c r="BU183" s="1" t="s">
-        <v>2364</v>
+        <v>2363</v>
       </c>
       <c r="BV183" s="1" t="s">
         <v>122</v>
@@ -45057,16 +44996,16 @@
         <v>102</v>
       </c>
       <c r="CD183" s="1" t="s">
+        <v>2364</v>
+      </c>
+      <c r="CE183" s="1" t="s">
         <v>2365</v>
       </c>
-      <c r="CE183" s="1" t="s">
+      <c r="CF183" s="1" t="s">
         <v>2366</v>
       </c>
-      <c r="CF183" s="1" t="s">
+      <c r="CH183" s="1" t="s">
         <v>2367</v>
-      </c>
-      <c r="CH183" s="1" t="s">
-        <v>2368</v>
       </c>
       <c r="CI183" s="1" t="s">
         <v>1813</v>
@@ -45107,13 +45046,13 @@
         <v>97</v>
       </c>
       <c r="K184" s="1" t="s">
+        <v>2368</v>
+      </c>
+      <c r="L184" s="1" t="s">
         <v>2369</v>
       </c>
-      <c r="L184" s="1" t="s">
+      <c r="N184" s="1" t="s">
         <v>2370</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>2371</v>
       </c>
       <c r="O184" s="1" t="s">
         <v>101</v>
@@ -45188,7 +45127,7 @@
         <v>102</v>
       </c>
       <c r="AZ184" s="1" t="s">
-        <v>2372</v>
+        <v>2371</v>
       </c>
       <c r="BB184" s="1">
         <v>10</v>
@@ -45197,16 +45136,16 @@
         <v>22</v>
       </c>
       <c r="BD184" s="1" t="s">
-        <v>2373</v>
+        <v>2372</v>
       </c>
       <c r="BG184" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH184" s="1" t="s">
+        <v>2373</v>
+      </c>
+      <c r="BI184" s="1" t="s">
         <v>2374</v>
-      </c>
-      <c r="BI184" s="1" t="s">
-        <v>2375</v>
       </c>
       <c r="BN184" s="1" t="s">
         <v>118</v>
@@ -45218,13 +45157,13 @@
         <v>103</v>
       </c>
       <c r="BS184" s="1" t="s">
-        <v>2376</v>
+        <v>2375</v>
       </c>
       <c r="BT184" s="3">
         <v>37735</v>
       </c>
       <c r="BU184" s="1" t="s">
-        <v>2377</v>
+        <v>2376</v>
       </c>
       <c r="BV184" s="1" t="s">
         <v>122</v>
@@ -45242,19 +45181,19 @@
         <v>102</v>
       </c>
       <c r="CD184" s="1" t="s">
+        <v>2377</v>
+      </c>
+      <c r="CE184" s="1" t="s">
         <v>2378</v>
       </c>
-      <c r="CE184" s="1" t="s">
+      <c r="CF184" s="1" t="s">
         <v>2379</v>
       </c>
-      <c r="CF184" s="1" t="s">
+      <c r="CH184" s="1" t="s">
         <v>2380</v>
       </c>
-      <c r="CH184" s="1" t="s">
+      <c r="CI184" s="1" t="s">
         <v>2381</v>
-      </c>
-      <c r="CI184" s="1" t="s">
-        <v>2382</v>
       </c>
       <c r="CJ184" s="1" t="s">
         <v>130</v>
@@ -45292,13 +45231,13 @@
         <v>97</v>
       </c>
       <c r="K185" s="1" t="s">
+        <v>2382</v>
+      </c>
+      <c r="L185" s="1" t="s">
         <v>2383</v>
       </c>
-      <c r="L185" s="1" t="s">
+      <c r="N185" s="1" t="s">
         <v>2384</v>
-      </c>
-      <c r="N185" s="1" t="s">
-        <v>2385</v>
       </c>
       <c r="O185" s="1" t="s">
         <v>101</v>
@@ -45379,7 +45318,7 @@
         <v>102</v>
       </c>
       <c r="AZ185" s="1" t="s">
-        <v>2386</v>
+        <v>2385</v>
       </c>
       <c r="BB185" s="1">
         <v>10</v>
@@ -45388,13 +45327,13 @@
         <v>22</v>
       </c>
       <c r="BD185" s="1" t="s">
-        <v>2387</v>
+        <v>2386</v>
       </c>
       <c r="BG185" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH185" s="1" t="s">
-        <v>2388</v>
+        <v>2387</v>
       </c>
       <c r="BN185" s="1" t="s">
         <v>118</v>
@@ -45403,7 +45342,7 @@
         <v>107</v>
       </c>
       <c r="BU185" s="1" t="s">
-        <v>2389</v>
+        <v>2388</v>
       </c>
       <c r="BV185" s="1" t="s">
         <v>122</v>
@@ -45421,16 +45360,16 @@
         <v>102</v>
       </c>
       <c r="CD185" s="1" t="s">
-        <v>2390</v>
+        <v>2389</v>
       </c>
       <c r="CE185" s="1" t="s">
         <v>850</v>
       </c>
       <c r="CF185" s="1" t="s">
+        <v>2390</v>
+      </c>
+      <c r="CH185" s="1" t="s">
         <v>2391</v>
-      </c>
-      <c r="CH185" s="1" t="s">
-        <v>2392</v>
       </c>
       <c r="CI185" s="1" t="s">
         <v>130</v>
@@ -45471,13 +45410,13 @@
         <v>97</v>
       </c>
       <c r="K186" s="1" t="s">
+        <v>2392</v>
+      </c>
+      <c r="L186" s="1" t="s">
         <v>2393</v>
       </c>
-      <c r="L186" s="1" t="s">
+      <c r="N186" s="1" t="s">
         <v>2394</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>2395</v>
       </c>
       <c r="O186" s="1" t="s">
         <v>101</v>
@@ -45516,7 +45455,7 @@
         <v>108</v>
       </c>
       <c r="AG186" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AH186" s="1" t="s">
         <v>1859</v>
@@ -45561,7 +45500,7 @@
         <v>102</v>
       </c>
       <c r="AZ186" s="1" t="s">
-        <v>2397</v>
+        <v>2396</v>
       </c>
       <c r="BB186" s="1">
         <v>10</v>
@@ -45570,13 +45509,13 @@
         <v>22</v>
       </c>
       <c r="BD186" s="1" t="s">
-        <v>2398</v>
+        <v>2397</v>
       </c>
       <c r="BG186" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH186" s="1" t="s">
-        <v>2399</v>
+        <v>2398</v>
       </c>
       <c r="BN186" s="1" t="s">
         <v>118</v>
@@ -45585,7 +45524,7 @@
         <v>107</v>
       </c>
       <c r="BU186" s="1" t="s">
-        <v>2400</v>
+        <v>2399</v>
       </c>
       <c r="BV186" s="1" t="s">
         <v>122</v>
@@ -45606,13 +45545,13 @@
         <v>1545</v>
       </c>
       <c r="CE186" s="1" t="s">
+        <v>2400</v>
+      </c>
+      <c r="CF186" s="1" t="s">
         <v>2401</v>
       </c>
-      <c r="CF186" s="1" t="s">
+      <c r="CH186" s="1" t="s">
         <v>2402</v>
-      </c>
-      <c r="CH186" s="1" t="s">
-        <v>2403</v>
       </c>
       <c r="CI186" s="1" t="s">
         <v>130</v>
@@ -45653,13 +45592,13 @@
         <v>97</v>
       </c>
       <c r="K187" s="1" t="s">
+        <v>2403</v>
+      </c>
+      <c r="L187" s="1" t="s">
         <v>2404</v>
       </c>
-      <c r="L187" s="1" t="s">
+      <c r="N187" s="1" t="s">
         <v>2405</v>
-      </c>
-      <c r="N187" s="1" t="s">
-        <v>2406</v>
       </c>
       <c r="O187" s="1" t="s">
         <v>101</v>
@@ -45740,7 +45679,7 @@
         <v>102</v>
       </c>
       <c r="AZ187" s="1" t="s">
-        <v>2407</v>
+        <v>2406</v>
       </c>
       <c r="BB187" s="1">
         <v>10</v>
@@ -45749,16 +45688,16 @@
         <v>22</v>
       </c>
       <c r="BD187" s="1" t="s">
-        <v>2408</v>
+        <v>2407</v>
       </c>
       <c r="BG187" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH187" s="1" t="s">
+        <v>2408</v>
+      </c>
+      <c r="BI187" s="1" t="s">
         <v>2409</v>
-      </c>
-      <c r="BI187" s="1" t="s">
-        <v>2410</v>
       </c>
       <c r="BN187" s="1" t="s">
         <v>118</v>
@@ -45770,13 +45709,13 @@
         <v>103</v>
       </c>
       <c r="BS187" s="1" t="s">
-        <v>2411</v>
+        <v>2410</v>
       </c>
       <c r="BT187" s="3">
         <v>43602</v>
       </c>
       <c r="BU187" s="1" t="s">
-        <v>2412</v>
+        <v>2411</v>
       </c>
       <c r="BV187" s="1" t="s">
         <v>122</v>
@@ -45800,13 +45739,13 @@
         <v>931</v>
       </c>
       <c r="CF187" s="1" t="s">
+        <v>2412</v>
+      </c>
+      <c r="CH187" s="1" t="s">
         <v>2413</v>
       </c>
-      <c r="CH187" s="1" t="s">
+      <c r="CI187" s="1" t="s">
         <v>2414</v>
-      </c>
-      <c r="CI187" s="1" t="s">
-        <v>2415</v>
       </c>
       <c r="CJ187" s="1" t="s">
         <v>130</v>
@@ -45844,13 +45783,13 @@
         <v>97</v>
       </c>
       <c r="K188" s="1" t="s">
+        <v>2415</v>
+      </c>
+      <c r="L188" s="1" t="s">
         <v>2416</v>
       </c>
-      <c r="L188" s="1" t="s">
+      <c r="N188" s="1" t="s">
         <v>2417</v>
-      </c>
-      <c r="N188" s="1" t="s">
-        <v>2418</v>
       </c>
       <c r="O188" s="1" t="s">
         <v>101</v>
@@ -45931,7 +45870,7 @@
         <v>102</v>
       </c>
       <c r="AZ188" s="1" t="s">
-        <v>2419</v>
+        <v>2418</v>
       </c>
       <c r="BB188" s="1">
         <v>10</v>
@@ -45940,13 +45879,13 @@
         <v>22</v>
       </c>
       <c r="BD188" s="1" t="s">
-        <v>2420</v>
+        <v>2419</v>
       </c>
       <c r="BG188" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH188" s="1" t="s">
-        <v>2421</v>
+        <v>2420</v>
       </c>
       <c r="BI188" s="1" t="s">
         <v>569</v>
@@ -45958,7 +45897,7 @@
         <v>107</v>
       </c>
       <c r="BU188" s="1" t="s">
-        <v>2422</v>
+        <v>2421</v>
       </c>
       <c r="BV188" s="1" t="s">
         <v>122</v>
@@ -45976,16 +45915,16 @@
         <v>102</v>
       </c>
       <c r="CD188" s="1" t="s">
+        <v>2422</v>
+      </c>
+      <c r="CE188" s="1" t="s">
         <v>2423</v>
       </c>
-      <c r="CE188" s="1" t="s">
+      <c r="CF188" s="1" t="s">
         <v>2424</v>
       </c>
-      <c r="CF188" s="1" t="s">
+      <c r="CH188" s="1" t="s">
         <v>2425</v>
-      </c>
-      <c r="CH188" s="1" t="s">
-        <v>2426</v>
       </c>
       <c r="CI188" s="1" t="s">
         <v>575</v>
@@ -46026,13 +45965,13 @@
         <v>97</v>
       </c>
       <c r="K189" s="1" t="s">
+        <v>2426</v>
+      </c>
+      <c r="L189" s="1" t="s">
         <v>2427</v>
       </c>
-      <c r="L189" s="1" t="s">
+      <c r="N189" s="1" t="s">
         <v>2428</v>
-      </c>
-      <c r="N189" s="1" t="s">
-        <v>2429</v>
       </c>
       <c r="O189" s="1" t="s">
         <v>101</v>
@@ -46074,7 +46013,7 @@
         <v>42247</v>
       </c>
       <c r="AD189" s="1" t="s">
-        <v>2430</v>
+        <v>2429</v>
       </c>
       <c r="AF189" s="1" t="s">
         <v>108</v>
@@ -46128,16 +46067,16 @@
         <v>22</v>
       </c>
       <c r="BD189" s="1" t="s">
-        <v>2431</v>
+        <v>2430</v>
       </c>
       <c r="BG189" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH189" s="1" t="s">
+        <v>2431</v>
+      </c>
+      <c r="BI189" s="1" t="s">
         <v>2432</v>
-      </c>
-      <c r="BI189" s="1" t="s">
-        <v>2433</v>
       </c>
       <c r="BN189" s="1" t="s">
         <v>118</v>
@@ -46149,13 +46088,13 @@
         <v>216</v>
       </c>
       <c r="BS189" s="1" t="s">
-        <v>2434</v>
+        <v>2433</v>
       </c>
       <c r="BT189" s="3">
         <v>36580</v>
       </c>
       <c r="BU189" s="1" t="s">
-        <v>2435</v>
+        <v>2434</v>
       </c>
       <c r="BV189" s="1" t="s">
         <v>122</v>
@@ -46176,7 +46115,7 @@
         <v>102</v>
       </c>
       <c r="CD189" s="1" t="s">
-        <v>2436</v>
+        <v>2435</v>
       </c>
       <c r="CE189" s="1" t="s">
         <v>284</v>
@@ -46185,10 +46124,10 @@
         <v>1574</v>
       </c>
       <c r="CH189" s="1" t="s">
+        <v>2436</v>
+      </c>
+      <c r="CI189" s="1" t="s">
         <v>2437</v>
-      </c>
-      <c r="CI189" s="1" t="s">
-        <v>2438</v>
       </c>
       <c r="CJ189" s="1" t="s">
         <v>130</v>
@@ -46226,13 +46165,13 @@
         <v>97</v>
       </c>
       <c r="K190" s="1" t="s">
+        <v>2438</v>
+      </c>
+      <c r="L190" s="1" t="s">
         <v>2439</v>
       </c>
-      <c r="L190" s="1" t="s">
+      <c r="N190" s="1" t="s">
         <v>2440</v>
-      </c>
-      <c r="N190" s="1" t="s">
-        <v>2441</v>
       </c>
       <c r="O190" s="1" t="s">
         <v>101</v>
@@ -46316,13 +46255,13 @@
         <v>22</v>
       </c>
       <c r="BD190" s="1" t="s">
-        <v>2442</v>
+        <v>2441</v>
       </c>
       <c r="BG190" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH190" s="1" t="s">
-        <v>2443</v>
+        <v>2442</v>
       </c>
       <c r="BN190" s="1" t="s">
         <v>118</v>
@@ -46334,13 +46273,13 @@
         <v>119</v>
       </c>
       <c r="BS190" s="1" t="s">
-        <v>2444</v>
+        <v>2443</v>
       </c>
       <c r="BT190" s="3">
         <v>37747</v>
       </c>
       <c r="BU190" s="1" t="s">
-        <v>2445</v>
+        <v>2444</v>
       </c>
       <c r="BV190" s="1" t="s">
         <v>122</v>
@@ -46364,10 +46303,10 @@
         <v>643</v>
       </c>
       <c r="CF190" s="1" t="s">
+        <v>2445</v>
+      </c>
+      <c r="CH190" s="1" t="s">
         <v>2446</v>
-      </c>
-      <c r="CH190" s="1" t="s">
-        <v>2447</v>
       </c>
       <c r="CI190" s="1" t="s">
         <v>130</v>
@@ -46408,13 +46347,13 @@
         <v>97</v>
       </c>
       <c r="K191" s="1" t="s">
+        <v>2447</v>
+      </c>
+      <c r="L191" s="1" t="s">
         <v>2448</v>
       </c>
-      <c r="L191" s="1" t="s">
+      <c r="N191" s="1" t="s">
         <v>2449</v>
-      </c>
-      <c r="N191" s="1" t="s">
-        <v>2450</v>
       </c>
       <c r="O191" s="1" t="s">
         <v>101</v>
@@ -46501,13 +46440,13 @@
         <v>22</v>
       </c>
       <c r="BD191" s="1" t="s">
-        <v>2451</v>
+        <v>2450</v>
       </c>
       <c r="BG191" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH191" s="1" t="s">
-        <v>2452</v>
+        <v>2451</v>
       </c>
       <c r="BN191" s="1" t="s">
         <v>118</v>
@@ -46516,7 +46455,7 @@
         <v>107</v>
       </c>
       <c r="BU191" s="1" t="s">
-        <v>2453</v>
+        <v>2452</v>
       </c>
       <c r="BV191" s="1" t="s">
         <v>122</v>
@@ -46534,16 +46473,16 @@
         <v>102</v>
       </c>
       <c r="CD191" s="1" t="s">
+        <v>2453</v>
+      </c>
+      <c r="CE191" s="1" t="s">
         <v>2454</v>
       </c>
-      <c r="CE191" s="1" t="s">
+      <c r="CF191" s="1" t="s">
         <v>2455</v>
       </c>
-      <c r="CF191" s="1" t="s">
+      <c r="CH191" s="1" t="s">
         <v>2456</v>
-      </c>
-      <c r="CH191" s="1" t="s">
-        <v>2457</v>
       </c>
       <c r="CI191" s="1" t="s">
         <v>130</v>
@@ -46584,13 +46523,13 @@
         <v>97</v>
       </c>
       <c r="K192" s="1" t="s">
+        <v>2457</v>
+      </c>
+      <c r="L192" s="1" t="s">
         <v>2458</v>
       </c>
-      <c r="L192" s="1" t="s">
+      <c r="N192" s="1" t="s">
         <v>2459</v>
-      </c>
-      <c r="N192" s="1" t="s">
-        <v>2460</v>
       </c>
       <c r="O192" s="1" t="s">
         <v>101</v>
@@ -46680,16 +46619,16 @@
         <v>22</v>
       </c>
       <c r="BD192" s="1" t="s">
-        <v>2461</v>
+        <v>2460</v>
       </c>
       <c r="BG192" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH192" s="1" t="s">
-        <v>2462</v>
+        <v>2461</v>
       </c>
       <c r="BI192" s="1" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="BN192" s="1" t="s">
         <v>118</v>
@@ -46701,7 +46640,7 @@
         <v>160</v>
       </c>
       <c r="BU192" s="1" t="s">
-        <v>2463</v>
+        <v>2462</v>
       </c>
       <c r="BV192" s="1" t="s">
         <v>122</v>
@@ -46719,19 +46658,19 @@
         <v>102</v>
       </c>
       <c r="CD192" s="1" t="s">
+        <v>2463</v>
+      </c>
+      <c r="CE192" s="1" t="s">
         <v>2464</v>
       </c>
-      <c r="CE192" s="1" t="s">
+      <c r="CF192" s="1" t="s">
         <v>2465</v>
       </c>
-      <c r="CF192" s="1" t="s">
+      <c r="CH192" s="1" t="s">
         <v>2466</v>
       </c>
-      <c r="CH192" s="1" t="s">
-        <v>2467</v>
-      </c>
       <c r="CI192" s="1" t="s">
-        <v>2284</v>
+        <v>2283</v>
       </c>
       <c r="CJ192" s="1" t="s">
         <v>130</v>
@@ -46769,13 +46708,13 @@
         <v>97</v>
       </c>
       <c r="K193" s="1" t="s">
+        <v>2467</v>
+      </c>
+      <c r="L193" s="1" t="s">
         <v>2468</v>
       </c>
-      <c r="L193" s="1" t="s">
+      <c r="N193" s="1" t="s">
         <v>2469</v>
-      </c>
-      <c r="N193" s="1" t="s">
-        <v>2470</v>
       </c>
       <c r="O193" s="1" t="s">
         <v>101</v>
@@ -46859,16 +46798,16 @@
         <v>22</v>
       </c>
       <c r="BD193" s="1" t="s">
-        <v>2471</v>
+        <v>2470</v>
       </c>
       <c r="BG193" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH193" s="1" t="s">
+        <v>2471</v>
+      </c>
+      <c r="BI193" s="1" t="s">
         <v>2472</v>
-      </c>
-      <c r="BI193" s="1" t="s">
-        <v>2473</v>
       </c>
       <c r="BN193" s="1" t="s">
         <v>118</v>
@@ -46880,13 +46819,13 @@
         <v>103</v>
       </c>
       <c r="BS193" s="1" t="s">
-        <v>2474</v>
+        <v>2473</v>
       </c>
       <c r="BT193" s="3">
         <v>37334</v>
       </c>
       <c r="BU193" s="1" t="s">
-        <v>2475</v>
+        <v>2474</v>
       </c>
       <c r="BV193" s="1" t="s">
         <v>122</v>
@@ -46907,16 +46846,16 @@
         <v>495</v>
       </c>
       <c r="CE193" s="1" t="s">
+        <v>2475</v>
+      </c>
+      <c r="CF193" s="1" t="s">
         <v>2476</v>
       </c>
-      <c r="CF193" s="1" t="s">
+      <c r="CH193" s="1" t="s">
         <v>2477</v>
       </c>
-      <c r="CH193" s="1" t="s">
+      <c r="CI193" s="1" t="s">
         <v>2478</v>
-      </c>
-      <c r="CI193" s="1" t="s">
-        <v>2479</v>
       </c>
       <c r="CJ193" s="1" t="s">
         <v>130</v>
@@ -46954,13 +46893,13 @@
         <v>97</v>
       </c>
       <c r="K194" s="1" t="s">
+        <v>2479</v>
+      </c>
+      <c r="L194" s="1" t="s">
         <v>2480</v>
       </c>
-      <c r="L194" s="1" t="s">
+      <c r="N194" s="1" t="s">
         <v>2481</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>2482</v>
       </c>
       <c r="O194" s="1" t="s">
         <v>101</v>
@@ -47047,16 +46986,16 @@
         <v>22</v>
       </c>
       <c r="BD194" s="1" t="s">
-        <v>2483</v>
+        <v>2482</v>
       </c>
       <c r="BG194" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH194" s="1" t="s">
+        <v>2483</v>
+      </c>
+      <c r="BI194" s="1" t="s">
         <v>2484</v>
-      </c>
-      <c r="BI194" s="1" t="s">
-        <v>2485</v>
       </c>
       <c r="BN194" s="1" t="s">
         <v>118</v>
@@ -47068,13 +47007,13 @@
         <v>103</v>
       </c>
       <c r="BS194" s="1" t="s">
-        <v>2486</v>
+        <v>2485</v>
       </c>
       <c r="BT194" s="3">
         <v>37904</v>
       </c>
       <c r="BU194" s="1" t="s">
-        <v>2487</v>
+        <v>2486</v>
       </c>
       <c r="BV194" s="1" t="s">
         <v>122</v>
@@ -47095,16 +47034,16 @@
         <v>931</v>
       </c>
       <c r="CE194" s="1" t="s">
+        <v>2487</v>
+      </c>
+      <c r="CF194" s="1" t="s">
         <v>2488</v>
       </c>
-      <c r="CF194" s="1" t="s">
+      <c r="CH194" s="1" t="s">
         <v>2489</v>
       </c>
-      <c r="CH194" s="1" t="s">
+      <c r="CI194" s="1" t="s">
         <v>2490</v>
-      </c>
-      <c r="CI194" s="1" t="s">
-        <v>2491</v>
       </c>
       <c r="CJ194" s="1" t="s">
         <v>130</v>
@@ -47142,13 +47081,13 @@
         <v>97</v>
       </c>
       <c r="K195" s="1" t="s">
+        <v>2491</v>
+      </c>
+      <c r="L195" s="1" t="s">
         <v>2492</v>
       </c>
-      <c r="L195" s="1" t="s">
+      <c r="N195" s="1" t="s">
         <v>2493</v>
-      </c>
-      <c r="N195" s="1" t="s">
-        <v>2494</v>
       </c>
       <c r="O195" s="1" t="s">
         <v>101</v>
@@ -47235,13 +47174,13 @@
         <v>22</v>
       </c>
       <c r="BD195" s="1" t="s">
-        <v>2495</v>
+        <v>2494</v>
       </c>
       <c r="BG195" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH195" s="1" t="s">
-        <v>2496</v>
+        <v>2495</v>
       </c>
       <c r="BI195" s="1" t="s">
         <v>363</v>
@@ -47256,13 +47195,13 @@
         <v>119</v>
       </c>
       <c r="BS195" s="1" t="s">
-        <v>2497</v>
+        <v>2496</v>
       </c>
       <c r="BT195" s="3">
         <v>36111</v>
       </c>
       <c r="BU195" s="1" t="s">
-        <v>2498</v>
+        <v>2497</v>
       </c>
       <c r="BV195" s="1" t="s">
         <v>122</v>
@@ -47280,16 +47219,16 @@
         <v>102</v>
       </c>
       <c r="CD195" s="1" t="s">
-        <v>2499</v>
+        <v>2498</v>
       </c>
       <c r="CE195" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="CF195" s="1" t="s">
+        <v>2499</v>
+      </c>
+      <c r="CH195" s="1" t="s">
         <v>2500</v>
-      </c>
-      <c r="CH195" s="1" t="s">
-        <v>2501</v>
       </c>
       <c r="CI195" s="1" t="s">
         <v>370</v>
@@ -47330,13 +47269,13 @@
         <v>97</v>
       </c>
       <c r="K196" s="1" t="s">
+        <v>2501</v>
+      </c>
+      <c r="L196" s="1" t="s">
         <v>2502</v>
       </c>
-      <c r="L196" s="1" t="s">
+      <c r="N196" s="1" t="s">
         <v>2503</v>
-      </c>
-      <c r="N196" s="1" t="s">
-        <v>2504</v>
       </c>
       <c r="O196" s="1" t="s">
         <v>101</v>
@@ -47420,16 +47359,16 @@
         <v>22</v>
       </c>
       <c r="BD196" s="1" t="s">
-        <v>2505</v>
+        <v>2504</v>
       </c>
       <c r="BG196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH196" s="1" t="s">
+        <v>2505</v>
+      </c>
+      <c r="BI196" s="1" t="s">
         <v>2506</v>
-      </c>
-      <c r="BI196" s="1" t="s">
-        <v>2507</v>
       </c>
       <c r="BN196" s="1" t="s">
         <v>118</v>
@@ -47441,13 +47380,13 @@
         <v>119</v>
       </c>
       <c r="BS196" s="1" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="BT196" s="3">
         <v>37785</v>
       </c>
       <c r="BU196" s="1" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="BV196" s="1" t="s">
         <v>122</v>
@@ -47465,19 +47404,19 @@
         <v>102</v>
       </c>
       <c r="CD196" s="1" t="s">
+        <v>2509</v>
+      </c>
+      <c r="CE196" s="1" t="s">
         <v>2510</v>
       </c>
-      <c r="CE196" s="1" t="s">
+      <c r="CF196" s="1" t="s">
         <v>2511</v>
       </c>
-      <c r="CF196" s="1" t="s">
+      <c r="CH196" s="1" t="s">
         <v>2512</v>
       </c>
-      <c r="CH196" s="1" t="s">
+      <c r="CI196" s="1" t="s">
         <v>2513</v>
-      </c>
-      <c r="CI196" s="1" t="s">
-        <v>2514</v>
       </c>
       <c r="CJ196" s="1" t="s">
         <v>130</v>
@@ -47509,16 +47448,16 @@
         <v>95</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K197" s="1" t="s">
+        <v>2514</v>
+      </c>
+      <c r="L197" s="1" t="s">
         <v>2515</v>
-      </c>
-      <c r="L197" s="1" t="s">
-        <v>2516</v>
       </c>
       <c r="O197" s="1" t="s">
         <v>101</v>
@@ -47596,7 +47535,7 @@
         <v>20</v>
       </c>
       <c r="BD197" s="1" t="s">
-        <v>2517</v>
+        <v>2516</v>
       </c>
       <c r="BN197" s="1" t="s">
         <v>118</v>
@@ -47611,7 +47550,7 @@
         <v>0</v>
       </c>
       <c r="CA197" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="CB197" s="1" t="s">
         <v>124</v>
@@ -47620,7 +47559,7 @@
         <v>102</v>
       </c>
       <c r="CD197" s="1" t="s">
-        <v>2515</v>
+        <v>2514</v>
       </c>
       <c r="CH197" s="1" t="s">
         <v>130</v>
@@ -47664,13 +47603,13 @@
         <v>97</v>
       </c>
       <c r="K198" s="1" t="s">
+        <v>2517</v>
+      </c>
+      <c r="L198" s="1" t="s">
         <v>2518</v>
       </c>
-      <c r="L198" s="1" t="s">
+      <c r="N198" s="1" t="s">
         <v>2519</v>
-      </c>
-      <c r="N198" s="1" t="s">
-        <v>2520</v>
       </c>
       <c r="O198" s="1" t="s">
         <v>101</v>
@@ -47751,7 +47690,7 @@
         <v>102</v>
       </c>
       <c r="AZ198" s="1" t="s">
-        <v>2521</v>
+        <v>2520</v>
       </c>
       <c r="BB198" s="1">
         <v>10</v>
@@ -47760,13 +47699,13 @@
         <v>22</v>
       </c>
       <c r="BD198" s="1" t="s">
-        <v>2522</v>
+        <v>2521</v>
       </c>
       <c r="BG198" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH198" s="1" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="BN198" s="1" t="s">
         <v>118</v>
@@ -47775,7 +47714,7 @@
         <v>107</v>
       </c>
       <c r="BU198" s="1" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="BV198" s="1" t="s">
         <v>122</v>
@@ -47793,16 +47732,16 @@
         <v>102</v>
       </c>
       <c r="CD198" s="1" t="s">
+        <v>2524</v>
+      </c>
+      <c r="CE198" s="1" t="s">
         <v>2525</v>
       </c>
-      <c r="CE198" s="1" t="s">
+      <c r="CF198" s="1" t="s">
         <v>2526</v>
       </c>
-      <c r="CF198" s="1" t="s">
+      <c r="CH198" s="1" t="s">
         <v>2527</v>
-      </c>
-      <c r="CH198" s="1" t="s">
-        <v>2528</v>
       </c>
       <c r="CI198" s="1" t="s">
         <v>130</v>
@@ -47843,13 +47782,13 @@
         <v>97</v>
       </c>
       <c r="K199" s="1" t="s">
+        <v>2528</v>
+      </c>
+      <c r="L199" s="1" t="s">
         <v>2529</v>
       </c>
-      <c r="L199" s="1" t="s">
+      <c r="N199" s="1" t="s">
         <v>2530</v>
-      </c>
-      <c r="N199" s="1" t="s">
-        <v>2531</v>
       </c>
       <c r="O199" s="1" t="s">
         <v>101</v>
@@ -47930,7 +47869,7 @@
         <v>102</v>
       </c>
       <c r="AZ199" s="1" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
       <c r="BB199" s="1">
         <v>10</v>
@@ -47939,13 +47878,13 @@
         <v>22</v>
       </c>
       <c r="BD199" s="1" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
       <c r="BG199" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH199" s="1" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
       <c r="BI199" s="1" t="s">
         <v>1862</v>
@@ -47957,7 +47896,7 @@
         <v>107</v>
       </c>
       <c r="BU199" s="1" t="s">
-        <v>2535</v>
+        <v>2534</v>
       </c>
       <c r="BV199" s="1" t="s">
         <v>122</v>
@@ -47975,16 +47914,16 @@
         <v>102</v>
       </c>
       <c r="CD199" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="CE199" s="1" t="s">
         <v>1091</v>
       </c>
       <c r="CF199" s="1" t="s">
+        <v>2536</v>
+      </c>
+      <c r="CH199" s="1" t="s">
         <v>2537</v>
-      </c>
-      <c r="CH199" s="1" t="s">
-        <v>2538</v>
       </c>
       <c r="CI199" s="1" t="s">
         <v>1868</v>
@@ -48025,13 +47964,13 @@
         <v>97</v>
       </c>
       <c r="K200" s="1" t="s">
+        <v>2538</v>
+      </c>
+      <c r="L200" s="1" t="s">
         <v>2539</v>
       </c>
-      <c r="L200" s="1" t="s">
+      <c r="N200" s="1" t="s">
         <v>2540</v>
-      </c>
-      <c r="N200" s="1" t="s">
-        <v>2541</v>
       </c>
       <c r="O200" s="1" t="s">
         <v>101</v>
@@ -48112,7 +48051,7 @@
         <v>102</v>
       </c>
       <c r="AZ200" s="1" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="BB200" s="1">
         <v>10</v>
@@ -48121,13 +48060,13 @@
         <v>22</v>
       </c>
       <c r="BD200" s="1" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="BG200" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH200" s="1" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="BN200" s="1" t="s">
         <v>118</v>
@@ -48136,7 +48075,7 @@
         <v>107</v>
       </c>
       <c r="BU200" s="1" t="s">
-        <v>2545</v>
+        <v>2544</v>
       </c>
       <c r="BV200" s="1" t="s">
         <v>122</v>
@@ -48157,13 +48096,13 @@
         <v>1091</v>
       </c>
       <c r="CE200" s="1" t="s">
+        <v>2545</v>
+      </c>
+      <c r="CF200" s="1" t="s">
         <v>2546</v>
       </c>
-      <c r="CF200" s="1" t="s">
+      <c r="CH200" s="1" t="s">
         <v>2547</v>
-      </c>
-      <c r="CH200" s="1" t="s">
-        <v>2548</v>
       </c>
       <c r="CI200" s="1" t="s">
         <v>130</v>
@@ -48204,13 +48143,13 @@
         <v>97</v>
       </c>
       <c r="K201" s="1" t="s">
+        <v>2548</v>
+      </c>
+      <c r="L201" s="1" t="s">
         <v>2549</v>
       </c>
-      <c r="L201" s="1" t="s">
+      <c r="N201" s="1" t="s">
         <v>2550</v>
-      </c>
-      <c r="N201" s="1" t="s">
-        <v>2551</v>
       </c>
       <c r="O201" s="1" t="s">
         <v>101</v>
@@ -48291,7 +48230,7 @@
         <v>102</v>
       </c>
       <c r="AZ201" s="1" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="BB201" s="1">
         <v>10</v>
@@ -48300,13 +48239,13 @@
         <v>22</v>
       </c>
       <c r="BD201" s="1" t="s">
-        <v>2553</v>
+        <v>2552</v>
       </c>
       <c r="BG201" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH201" s="1" t="s">
-        <v>2554</v>
+        <v>2553</v>
       </c>
       <c r="BI201" s="1" t="s">
         <v>1862</v>
@@ -48324,13 +48263,13 @@
         <v>160</v>
       </c>
       <c r="BS201" s="1" t="s">
-        <v>2555</v>
+        <v>2554</v>
       </c>
       <c r="BT201" s="3">
         <v>37513</v>
       </c>
       <c r="BU201" s="1" t="s">
-        <v>2556</v>
+        <v>2555</v>
       </c>
       <c r="BV201" s="1" t="s">
         <v>122</v>
@@ -48348,16 +48287,16 @@
         <v>102</v>
       </c>
       <c r="CD201" s="1" t="s">
-        <v>2557</v>
+        <v>2556</v>
       </c>
       <c r="CE201" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF201" s="1" t="s">
+        <v>2557</v>
+      </c>
+      <c r="CH201" s="1" t="s">
         <v>2558</v>
-      </c>
-      <c r="CH201" s="1" t="s">
-        <v>2559</v>
       </c>
       <c r="CI201" s="1" t="s">
         <v>1868</v>
@@ -48398,13 +48337,13 @@
         <v>97</v>
       </c>
       <c r="K202" s="1" t="s">
+        <v>2559</v>
+      </c>
+      <c r="L202" s="1" t="s">
         <v>2560</v>
       </c>
-      <c r="L202" s="1" t="s">
+      <c r="N202" s="1" t="s">
         <v>2561</v>
-      </c>
-      <c r="N202" s="1" t="s">
-        <v>2562</v>
       </c>
       <c r="O202" s="1" t="s">
         <v>101</v>
@@ -48491,16 +48430,16 @@
         <v>22</v>
       </c>
       <c r="BD202" s="1" t="s">
-        <v>2563</v>
+        <v>2562</v>
       </c>
       <c r="BG202" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH202" s="1" t="s">
+        <v>2563</v>
+      </c>
+      <c r="BI202" s="1" t="s">
         <v>2564</v>
-      </c>
-      <c r="BI202" s="1" t="s">
-        <v>2565</v>
       </c>
       <c r="BN202" s="1" t="s">
         <v>118</v>
@@ -48512,13 +48451,13 @@
         <v>216</v>
       </c>
       <c r="BS202" s="1" t="s">
-        <v>2566</v>
+        <v>2565</v>
       </c>
       <c r="BT202" s="3">
         <v>41024</v>
       </c>
       <c r="BU202" s="1" t="s">
-        <v>2567</v>
+        <v>2566</v>
       </c>
       <c r="BV202" s="1" t="s">
         <v>122</v>
@@ -48536,19 +48475,19 @@
         <v>102</v>
       </c>
       <c r="CD202" s="1" t="s">
+        <v>2567</v>
+      </c>
+      <c r="CE202" s="1" t="s">
         <v>2568</v>
       </c>
-      <c r="CE202" s="1" t="s">
+      <c r="CF202" s="1" t="s">
         <v>2569</v>
       </c>
-      <c r="CF202" s="1" t="s">
+      <c r="CH202" s="1" t="s">
         <v>2570</v>
       </c>
-      <c r="CH202" s="1" t="s">
+      <c r="CI202" s="1" t="s">
         <v>2571</v>
-      </c>
-      <c r="CI202" s="1" t="s">
-        <v>2572</v>
       </c>
       <c r="CJ202" s="1" t="s">
         <v>130</v>
@@ -48568,7 +48507,7 @@
         <v>410</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>102</v>
@@ -48580,16 +48519,16 @@
         <v>95</v>
       </c>
       <c r="I203" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K203" s="1" t="s">
+        <v>2574</v>
+      </c>
+      <c r="L203" s="1" t="s">
         <v>2575</v>
-      </c>
-      <c r="L203" s="1" t="s">
-        <v>2576</v>
       </c>
       <c r="O203" s="1" t="s">
         <v>101</v>
@@ -48619,7 +48558,7 @@
         <v>108</v>
       </c>
       <c r="AG203" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AH203" s="1" t="s">
         <v>1859</v>
@@ -48664,7 +48603,7 @@
         <v>102</v>
       </c>
       <c r="AZ203" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BB203" s="1">
         <v>2</v>
@@ -48673,7 +48612,7 @@
         <v>21</v>
       </c>
       <c r="BD203" s="1" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
       <c r="BN203" s="1" t="s">
         <v>118</v>
@@ -48691,7 +48630,7 @@
         <v>0</v>
       </c>
       <c r="CA203" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="CB203" s="1" t="s">
         <v>124</v>
@@ -48700,7 +48639,7 @@
         <v>102</v>
       </c>
       <c r="CD203" s="1" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="CH203" s="1" t="s">
         <v>1791</v>
@@ -48744,13 +48683,13 @@
         <v>97</v>
       </c>
       <c r="K204" s="1" t="s">
+        <v>2579</v>
+      </c>
+      <c r="L204" s="1" t="s">
         <v>2580</v>
       </c>
-      <c r="L204" s="1" t="s">
+      <c r="N204" s="1" t="s">
         <v>2581</v>
-      </c>
-      <c r="N204" s="1" t="s">
-        <v>2582</v>
       </c>
       <c r="O204" s="1" t="s">
         <v>101</v>
@@ -48825,7 +48764,7 @@
         <v>102</v>
       </c>
       <c r="AZ204" s="1" t="s">
-        <v>2583</v>
+        <v>2582</v>
       </c>
       <c r="BB204" s="1">
         <v>10</v>
@@ -48834,13 +48773,13 @@
         <v>22</v>
       </c>
       <c r="BD204" s="1" t="s">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="BG204" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH204" s="1" t="s">
-        <v>2585</v>
+        <v>2584</v>
       </c>
       <c r="BI204" s="1" t="s">
         <v>718</v>
@@ -48855,13 +48794,13 @@
         <v>103</v>
       </c>
       <c r="BS204" s="1" t="s">
-        <v>2586</v>
+        <v>2585</v>
       </c>
       <c r="BT204" s="3">
         <v>37336</v>
       </c>
       <c r="BU204" s="1" t="s">
-        <v>2587</v>
+        <v>2586</v>
       </c>
       <c r="BV204" s="1" t="s">
         <v>122</v>
@@ -48879,16 +48818,16 @@
         <v>102</v>
       </c>
       <c r="CD204" s="1" t="s">
+        <v>2587</v>
+      </c>
+      <c r="CE204" s="1" t="s">
         <v>2588</v>
       </c>
-      <c r="CE204" s="1" t="s">
+      <c r="CF204" s="1" t="s">
         <v>2589</v>
       </c>
-      <c r="CF204" s="1" t="s">
+      <c r="CH204" s="1" t="s">
         <v>2590</v>
-      </c>
-      <c r="CH204" s="1" t="s">
-        <v>2591</v>
       </c>
       <c r="CI204" s="1" t="s">
         <v>724</v>
@@ -48929,13 +48868,13 @@
         <v>97</v>
       </c>
       <c r="K205" s="1" t="s">
+        <v>2591</v>
+      </c>
+      <c r="L205" s="1" t="s">
         <v>2592</v>
       </c>
-      <c r="L205" s="1" t="s">
+      <c r="N205" s="1" t="s">
         <v>2593</v>
-      </c>
-      <c r="N205" s="1" t="s">
-        <v>2594</v>
       </c>
       <c r="O205" s="1" t="s">
         <v>101</v>
@@ -49016,7 +48955,7 @@
         <v>102</v>
       </c>
       <c r="AZ205" s="1" t="s">
-        <v>2595</v>
+        <v>2594</v>
       </c>
       <c r="BB205" s="1">
         <v>10</v>
@@ -49025,16 +48964,16 @@
         <v>22</v>
       </c>
       <c r="BD205" s="1" t="s">
-        <v>2596</v>
+        <v>2595</v>
       </c>
       <c r="BG205" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH205" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="BI205" s="1" t="s">
         <v>2597</v>
-      </c>
-      <c r="BI205" s="1" t="s">
-        <v>2598</v>
       </c>
       <c r="BN205" s="1" t="s">
         <v>118</v>
@@ -49043,7 +48982,7 @@
         <v>107</v>
       </c>
       <c r="BU205" s="1" t="s">
-        <v>2599</v>
+        <v>2598</v>
       </c>
       <c r="BV205" s="1" t="s">
         <v>122</v>
@@ -49061,19 +49000,19 @@
         <v>102</v>
       </c>
       <c r="CD205" s="1" t="s">
+        <v>2599</v>
+      </c>
+      <c r="CE205" s="1" t="s">
         <v>2600</v>
       </c>
-      <c r="CE205" s="1" t="s">
+      <c r="CF205" s="1" t="s">
         <v>2601</v>
       </c>
-      <c r="CF205" s="1" t="s">
+      <c r="CH205" s="1" t="s">
         <v>2602</v>
       </c>
-      <c r="CH205" s="1" t="s">
+      <c r="CI205" s="1" t="s">
         <v>2603</v>
-      </c>
-      <c r="CI205" s="1" t="s">
-        <v>2604</v>
       </c>
       <c r="CJ205" s="1" t="s">
         <v>130</v>
@@ -49111,13 +49050,13 @@
         <v>97</v>
       </c>
       <c r="K206" s="1" t="s">
+        <v>2604</v>
+      </c>
+      <c r="L206" s="1" t="s">
         <v>2605</v>
       </c>
-      <c r="L206" s="1" t="s">
+      <c r="N206" s="1" t="s">
         <v>2606</v>
-      </c>
-      <c r="N206" s="1" t="s">
-        <v>2607</v>
       </c>
       <c r="O206" s="1" t="s">
         <v>101</v>
@@ -49207,13 +49146,13 @@
         <v>22</v>
       </c>
       <c r="BD206" s="1" t="s">
-        <v>2608</v>
+        <v>2607</v>
       </c>
       <c r="BG206" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH206" s="1" t="s">
-        <v>2609</v>
+        <v>2608</v>
       </c>
       <c r="BN206" s="1" t="s">
         <v>118</v>
@@ -49222,7 +49161,7 @@
         <v>107</v>
       </c>
       <c r="BU206" s="1" t="s">
-        <v>2610</v>
+        <v>2609</v>
       </c>
       <c r="BV206" s="1" t="s">
         <v>122</v>
@@ -49240,16 +49179,16 @@
         <v>102</v>
       </c>
       <c r="CD206" s="1" t="s">
+        <v>2610</v>
+      </c>
+      <c r="CE206" s="1" t="s">
         <v>2611</v>
       </c>
-      <c r="CE206" s="1" t="s">
+      <c r="CF206" s="1" t="s">
         <v>2612</v>
       </c>
-      <c r="CF206" s="1" t="s">
+      <c r="CH206" s="1" t="s">
         <v>2613</v>
-      </c>
-      <c r="CH206" s="1" t="s">
-        <v>2614</v>
       </c>
       <c r="CI206" s="1" t="s">
         <v>130</v>
@@ -49290,13 +49229,13 @@
         <v>97</v>
       </c>
       <c r="K207" s="1" t="s">
+        <v>2614</v>
+      </c>
+      <c r="L207" s="1" t="s">
         <v>2615</v>
       </c>
-      <c r="L207" s="1" t="s">
+      <c r="N207" s="1" t="s">
         <v>2616</v>
-      </c>
-      <c r="N207" s="1" t="s">
-        <v>2617</v>
       </c>
       <c r="O207" s="1" t="s">
         <v>101</v>
@@ -49334,12 +49273,7 @@
       <c r="AA207" s="1">
         <v>0</v>
       </c>
-      <c r="AC207" s="3">
-        <v>43008</v>
-      </c>
-      <c r="AD207" s="1" t="s">
-        <v>2618</v>
-      </c>
+      <c r="AC207" s="3"/>
       <c r="AF207" s="1" t="s">
         <v>108</v>
       </c>
@@ -49389,7 +49323,7 @@
         <v>102</v>
       </c>
       <c r="AZ207" s="1" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
       <c r="BB207" s="1">
         <v>10</v>
@@ -49398,16 +49332,16 @@
         <v>22</v>
       </c>
       <c r="BD207" s="1" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="BG207" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH207" s="1" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="BI207" s="1" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
       <c r="BN207" s="1" t="s">
         <v>118</v>
@@ -49416,7 +49350,7 @@
         <v>107</v>
       </c>
       <c r="BU207" s="1" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="BV207" s="1" t="s">
         <v>122</v>
@@ -49440,16 +49374,16 @@
         <v>1140</v>
       </c>
       <c r="CE207" s="1" t="s">
+        <v>2622</v>
+      </c>
+      <c r="CF207" s="1" t="s">
+        <v>2623</v>
+      </c>
+      <c r="CH207" s="1" t="s">
         <v>2624</v>
       </c>
-      <c r="CF207" s="1" t="s">
+      <c r="CI207" s="1" t="s">
         <v>2625</v>
-      </c>
-      <c r="CH207" s="1" t="s">
-        <v>2626</v>
-      </c>
-      <c r="CI207" s="1" t="s">
-        <v>2627</v>
       </c>
       <c r="CJ207" s="1" t="s">
         <v>130</v>
@@ -49469,7 +49403,7 @@
         <v>91</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>102</v>
@@ -49481,16 +49415,16 @@
         <v>95</v>
       </c>
       <c r="I208" s="1" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K208" s="1" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
       <c r="L208" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
       <c r="O208" s="1" t="s">
         <v>112</v>
@@ -49514,7 +49448,7 @@
         <v>108</v>
       </c>
       <c r="AG208" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="AH208" s="1" t="s">
         <v>359</v>
@@ -49568,10 +49502,10 @@
         <v>102</v>
       </c>
       <c r="CD208" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="CF208" s="1" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="209" spans="1:88" x14ac:dyDescent="0.25">
@@ -49588,7 +49522,7 @@
         <v>1778</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>102</v>
@@ -49600,16 +49534,16 @@
         <v>95</v>
       </c>
       <c r="I209" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K209" s="1" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
       <c r="L209" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="O209" s="1" t="s">
         <v>112</v>
@@ -49636,7 +49570,7 @@
         <v>108</v>
       </c>
       <c r="AG209" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="AH209" s="1" t="s">
         <v>359</v>
@@ -49681,7 +49615,7 @@
         <v>0</v>
       </c>
       <c r="CA209" s="1" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="CB209" s="1" t="s">
         <v>124</v>
@@ -49690,10 +49624,10 @@
         <v>102</v>
       </c>
       <c r="CD209" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="CF209" s="1" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="210" spans="1:88" x14ac:dyDescent="0.25">
@@ -49710,7 +49644,7 @@
         <v>410</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>102</v>
@@ -49722,16 +49656,16 @@
         <v>95</v>
       </c>
       <c r="I210" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K210" s="1" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
       <c r="L210" s="1" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
       <c r="O210" s="1" t="s">
         <v>112</v>
@@ -49758,7 +49692,7 @@
         <v>108</v>
       </c>
       <c r="AG210" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="AH210" s="1" t="s">
         <v>359</v>
@@ -49803,7 +49737,7 @@
         <v>0</v>
       </c>
       <c r="CA210" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="CB210" s="1" t="s">
         <v>124</v>
@@ -49812,10 +49746,10 @@
         <v>102</v>
       </c>
       <c r="CD210" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="CF210" s="1" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="211" spans="1:88" x14ac:dyDescent="0.25">
@@ -49832,7 +49766,7 @@
         <v>91</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>93</v>
@@ -49844,16 +49778,16 @@
         <v>95</v>
       </c>
       <c r="I211" s="1" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K211" s="1" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
       <c r="L211" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
       <c r="O211" s="1" t="s">
         <v>112</v>
@@ -49925,7 +49859,7 @@
         <v>0</v>
       </c>
       <c r="CA211" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="CB211" s="1" t="s">
         <v>124</v>
@@ -49934,10 +49868,10 @@
         <v>102</v>
       </c>
       <c r="CD211" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="CF211" s="1" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="212" spans="1:88" x14ac:dyDescent="0.25">
@@ -49954,7 +49888,7 @@
         <v>91</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>93</v>
@@ -49966,16 +49900,16 @@
         <v>95</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K212" s="1" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="L212" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
       <c r="O212" s="1" t="s">
         <v>112</v>
@@ -50053,10 +49987,10 @@
         <v>102</v>
       </c>
       <c r="CD212" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="CF212" s="1" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="213" spans="1:88" x14ac:dyDescent="0.25">
@@ -50073,7 +50007,7 @@
         <v>91</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>93</v>
@@ -50085,16 +50019,16 @@
         <v>95</v>
       </c>
       <c r="I213" s="1" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K213" s="1" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="L213" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
       <c r="O213" s="1" t="s">
         <v>112</v>
@@ -50166,7 +50100,7 @@
         <v>0</v>
       </c>
       <c r="CA213" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="CB213" s="1" t="s">
         <v>124</v>
@@ -50175,10 +50109,10 @@
         <v>102</v>
       </c>
       <c r="CD213" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="CF213" s="1" t="s">
-        <v>2652</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="214" spans="1:88" x14ac:dyDescent="0.25">
@@ -50195,7 +50129,7 @@
         <v>410</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>93</v>
@@ -50207,16 +50141,16 @@
         <v>95</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K214" s="1" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="L214" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
       <c r="O214" s="1" t="s">
         <v>112</v>
@@ -50288,7 +50222,7 @@
         <v>0</v>
       </c>
       <c r="CA214" s="1" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="CB214" s="1" t="s">
         <v>124</v>
@@ -50297,10 +50231,10 @@
         <v>102</v>
       </c>
       <c r="CD214" s="1" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="CF214" s="1" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="215" spans="1:88" x14ac:dyDescent="0.25">
@@ -50335,13 +50269,13 @@
         <v>97</v>
       </c>
       <c r="K215" s="1" t="s">
+        <v>2653</v>
+      </c>
+      <c r="L215" s="1" t="s">
+        <v>2654</v>
+      </c>
+      <c r="N215" s="1" t="s">
         <v>2655</v>
-      </c>
-      <c r="L215" s="1" t="s">
-        <v>2656</v>
-      </c>
-      <c r="N215" s="1" t="s">
-        <v>2657</v>
       </c>
       <c r="O215" s="1" t="s">
         <v>101</v>
@@ -50373,12 +50307,7 @@
       <c r="AA215" s="1">
         <v>0</v>
       </c>
-      <c r="AC215" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD215" s="1" t="s">
-        <v>2618</v>
-      </c>
+      <c r="AC215" s="3"/>
       <c r="AF215" s="1" t="s">
         <v>108</v>
       </c>
@@ -50431,13 +50360,13 @@
         <v>22</v>
       </c>
       <c r="BD215" s="1" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
       <c r="BG215" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH215" s="1" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
       <c r="BI215" s="1" t="s">
         <v>363</v>
@@ -50452,13 +50381,13 @@
         <v>103</v>
       </c>
       <c r="BS215" s="1" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
       <c r="BT215" s="3">
         <v>36306</v>
       </c>
       <c r="BU215" s="1" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="BV215" s="1" t="s">
         <v>122</v>
@@ -50476,16 +50405,16 @@
         <v>102</v>
       </c>
       <c r="CD215" s="1" t="s">
+        <v>2660</v>
+      </c>
+      <c r="CE215" s="1" t="s">
+        <v>2661</v>
+      </c>
+      <c r="CF215" s="1" t="s">
         <v>2662</v>
       </c>
-      <c r="CE215" s="1" t="s">
+      <c r="CH215" s="1" t="s">
         <v>2663</v>
-      </c>
-      <c r="CF215" s="1" t="s">
-        <v>2664</v>
-      </c>
-      <c r="CH215" s="1" t="s">
-        <v>2665</v>
       </c>
       <c r="CI215" s="1" t="s">
         <v>370</v>
@@ -50526,13 +50455,13 @@
         <v>97</v>
       </c>
       <c r="K216" s="1" t="s">
+        <v>2664</v>
+      </c>
+      <c r="L216" s="1" t="s">
+        <v>2665</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>2666</v>
-      </c>
-      <c r="L216" s="1" t="s">
-        <v>2667</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>2668</v>
       </c>
       <c r="O216" s="1" t="s">
         <v>101</v>
@@ -50564,12 +50493,7 @@
       <c r="AA216" s="1">
         <v>0</v>
       </c>
-      <c r="AC216" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD216" s="1" t="s">
-        <v>2618</v>
-      </c>
+      <c r="AC216" s="3"/>
       <c r="AF216" s="1" t="s">
         <v>108</v>
       </c>
@@ -50625,13 +50549,13 @@
         <v>22</v>
       </c>
       <c r="BD216" s="1" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="BG216" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH216" s="1" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
       <c r="BN216" s="1" t="s">
         <v>118</v>
@@ -50640,7 +50564,7 @@
         <v>107</v>
       </c>
       <c r="BU216" s="1" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="BV216" s="1" t="s">
         <v>122</v>
@@ -50658,16 +50582,16 @@
         <v>102</v>
       </c>
       <c r="CD216" s="1" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="CE216" s="1" t="s">
         <v>126</v>
       </c>
       <c r="CF216" s="1" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="CH216" s="1" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="CI216" s="1" t="s">
         <v>130</v>
@@ -50708,13 +50632,13 @@
         <v>97</v>
       </c>
       <c r="K217" s="1" t="s">
+        <v>2673</v>
+      </c>
+      <c r="L217" s="1" t="s">
+        <v>2674</v>
+      </c>
+      <c r="N217" s="1" t="s">
         <v>2675</v>
-      </c>
-      <c r="L217" s="1" t="s">
-        <v>2676</v>
-      </c>
-      <c r="N217" s="1" t="s">
-        <v>2677</v>
       </c>
       <c r="O217" s="1" t="s">
         <v>101</v>
@@ -50749,12 +50673,7 @@
       <c r="AB217" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="AC217" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD217" s="1" t="s">
-        <v>2618</v>
-      </c>
+      <c r="AC217" s="3"/>
       <c r="AF217" s="1" t="s">
         <v>108</v>
       </c>
@@ -50807,13 +50726,13 @@
         <v>22</v>
       </c>
       <c r="BD217" s="1" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="BG217" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH217" s="1" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
       <c r="BI217" s="1" t="s">
         <v>363</v>
@@ -50828,13 +50747,13 @@
         <v>103</v>
       </c>
       <c r="BS217" s="1" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="BT217" s="3">
         <v>38234</v>
       </c>
       <c r="BU217" s="1" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="BV217" s="1" t="s">
         <v>122</v>
@@ -50852,16 +50771,16 @@
         <v>102</v>
       </c>
       <c r="CD217" s="1" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="CE217" s="1" t="s">
         <v>982</v>
       </c>
       <c r="CF217" s="1" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="CH217" s="1" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="CI217" s="1" t="s">
         <v>370</v>
@@ -50902,13 +50821,13 @@
         <v>97</v>
       </c>
       <c r="K218" s="1" t="s">
+        <v>2683</v>
+      </c>
+      <c r="L218" s="1" t="s">
+        <v>2684</v>
+      </c>
+      <c r="N218" s="1" t="s">
         <v>2685</v>
-      </c>
-      <c r="L218" s="1" t="s">
-        <v>2686</v>
-      </c>
-      <c r="N218" s="1" t="s">
-        <v>2687</v>
       </c>
       <c r="O218" s="1" t="s">
         <v>101</v>
@@ -50940,12 +50859,7 @@
       <c r="AA218" s="1">
         <v>0</v>
       </c>
-      <c r="AC218" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD218" s="1" t="s">
-        <v>2618</v>
-      </c>
+      <c r="AC218" s="3"/>
       <c r="AF218" s="1" t="s">
         <v>108</v>
       </c>
@@ -51001,16 +50915,16 @@
         <v>22</v>
       </c>
       <c r="BD218" s="1" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="BG218" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH218" s="1" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="BI218" s="1" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="BN218" s="1" t="s">
         <v>118</v>
@@ -51019,7 +50933,7 @@
         <v>107</v>
       </c>
       <c r="BU218" s="1" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="BV218" s="1" t="s">
         <v>122</v>
@@ -51037,19 +50951,19 @@
         <v>102</v>
       </c>
       <c r="CD218" s="1" t="s">
+        <v>2690</v>
+      </c>
+      <c r="CE218" s="1" t="s">
+        <v>2691</v>
+      </c>
+      <c r="CF218" s="1" t="s">
         <v>2692</v>
       </c>
-      <c r="CE218" s="1" t="s">
+      <c r="CH218" s="1" t="s">
         <v>2693</v>
       </c>
-      <c r="CF218" s="1" t="s">
+      <c r="CI218" s="1" t="s">
         <v>2694</v>
-      </c>
-      <c r="CH218" s="1" t="s">
-        <v>2695</v>
-      </c>
-      <c r="CI218" s="1" t="s">
-        <v>2696</v>
       </c>
       <c r="CJ218" s="1" t="s">
         <v>130</v>
@@ -51087,13 +51001,13 @@
         <v>97</v>
       </c>
       <c r="K219" s="1" t="s">
+        <v>2695</v>
+      </c>
+      <c r="L219" s="1" t="s">
+        <v>2696</v>
+      </c>
+      <c r="N219" s="1" t="s">
         <v>2697</v>
-      </c>
-      <c r="L219" s="1" t="s">
-        <v>2698</v>
-      </c>
-      <c r="N219" s="1" t="s">
-        <v>2699</v>
       </c>
       <c r="O219" s="1" t="s">
         <v>101</v>
@@ -51125,12 +51039,7 @@
       <c r="AA219" s="1">
         <v>0</v>
       </c>
-      <c r="AC219" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD219" s="1" t="s">
-        <v>2618</v>
-      </c>
+      <c r="AC219" s="3"/>
       <c r="AF219" s="1" t="s">
         <v>108</v>
       </c>
@@ -51183,13 +51092,13 @@
         <v>22</v>
       </c>
       <c r="BD219" s="1" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
       <c r="BG219" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH219" s="1" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
       <c r="BI219" s="1" t="s">
         <v>1087</v>
@@ -51204,13 +51113,13 @@
         <v>216</v>
       </c>
       <c r="BS219" s="1" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
       <c r="BT219" s="3">
         <v>37069</v>
       </c>
       <c r="BU219" s="1" t="s">
-        <v>2703</v>
+        <v>2701</v>
       </c>
       <c r="BV219" s="1" t="s">
         <v>122</v>
@@ -51231,13 +51140,13 @@
         <v>734</v>
       </c>
       <c r="CE219" s="1" t="s">
+        <v>2702</v>
+      </c>
+      <c r="CF219" s="1" t="s">
+        <v>2703</v>
+      </c>
+      <c r="CH219" s="1" t="s">
         <v>2704</v>
-      </c>
-      <c r="CF219" s="1" t="s">
-        <v>2705</v>
-      </c>
-      <c r="CH219" s="1" t="s">
-        <v>2706</v>
       </c>
       <c r="CI219" s="1" t="s">
         <v>1094</v>
@@ -51278,13 +51187,13 @@
         <v>97</v>
       </c>
       <c r="K220" s="1" t="s">
+        <v>2705</v>
+      </c>
+      <c r="L220" s="1" t="s">
+        <v>2706</v>
+      </c>
+      <c r="N220" s="1" t="s">
         <v>2707</v>
-      </c>
-      <c r="L220" s="1" t="s">
-        <v>2708</v>
-      </c>
-      <c r="N220" s="1" t="s">
-        <v>2709</v>
       </c>
       <c r="O220" s="1" t="s">
         <v>101</v>
@@ -51316,12 +51225,7 @@
       <c r="AA220" s="1">
         <v>0</v>
       </c>
-      <c r="AC220" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD220" s="1" t="s">
-        <v>2618</v>
-      </c>
+      <c r="AC220" s="3"/>
       <c r="AF220" s="1" t="s">
         <v>108</v>
       </c>
@@ -51377,13 +51281,13 @@
         <v>22</v>
       </c>
       <c r="BD220" s="1" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="BG220" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH220" s="1" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="BN220" s="1" t="s">
         <v>118</v>
@@ -51392,7 +51296,7 @@
         <v>107</v>
       </c>
       <c r="BU220" s="1" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="BV220" s="1" t="s">
         <v>122</v>
@@ -51410,16 +51314,16 @@
         <v>102</v>
       </c>
       <c r="CD220" s="1" t="s">
+        <v>2711</v>
+      </c>
+      <c r="CE220" s="1" t="s">
+        <v>2712</v>
+      </c>
+      <c r="CF220" s="1" t="s">
         <v>2713</v>
       </c>
-      <c r="CE220" s="1" t="s">
+      <c r="CH220" s="1" t="s">
         <v>2714</v>
-      </c>
-      <c r="CF220" s="1" t="s">
-        <v>2715</v>
-      </c>
-      <c r="CH220" s="1" t="s">
-        <v>2716</v>
       </c>
       <c r="CI220" s="1" t="s">
         <v>130</v>
@@ -51460,13 +51364,13 @@
         <v>97</v>
       </c>
       <c r="K221" s="1" t="s">
+        <v>2715</v>
+      </c>
+      <c r="L221" s="1" t="s">
+        <v>2716</v>
+      </c>
+      <c r="N221" s="1" t="s">
         <v>2717</v>
-      </c>
-      <c r="L221" s="1" t="s">
-        <v>2718</v>
-      </c>
-      <c r="N221" s="1" t="s">
-        <v>2719</v>
       </c>
       <c r="O221" s="1" t="s">
         <v>101</v>
@@ -51498,12 +51402,7 @@
       <c r="AA221" s="1">
         <v>0</v>
       </c>
-      <c r="AC221" s="3">
-        <v>43404</v>
-      </c>
-      <c r="AD221" s="1" t="s">
-        <v>2720</v>
-      </c>
+      <c r="AC221" s="3"/>
       <c r="AF221" s="1" t="s">
         <v>108</v>
       </c>
@@ -51550,7 +51449,7 @@
         <v>102</v>
       </c>
       <c r="AZ221" s="1" t="s">
-        <v>2721</v>
+        <v>2718</v>
       </c>
       <c r="BB221" s="1">
         <v>10</v>
@@ -51559,16 +51458,16 @@
         <v>22</v>
       </c>
       <c r="BD221" s="1" t="s">
-        <v>2722</v>
+        <v>2719</v>
       </c>
       <c r="BG221" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH221" s="1" t="s">
-        <v>2723</v>
+        <v>2720</v>
       </c>
       <c r="BI221" s="1" t="s">
-        <v>2724</v>
+        <v>2721</v>
       </c>
       <c r="BN221" s="1" t="s">
         <v>118</v>
@@ -51580,13 +51479,13 @@
         <v>216</v>
       </c>
       <c r="BS221" s="1" t="s">
-        <v>2725</v>
+        <v>2722</v>
       </c>
       <c r="BT221" s="3">
         <v>35125</v>
       </c>
       <c r="BU221" s="1" t="s">
-        <v>2726</v>
+        <v>2723</v>
       </c>
       <c r="BV221" s="1" t="s">
         <v>122</v>
@@ -51604,19 +51503,19 @@
         <v>102</v>
       </c>
       <c r="CD221" s="1" t="s">
-        <v>2727</v>
+        <v>2724</v>
       </c>
       <c r="CE221" s="1" t="s">
         <v>125</v>
       </c>
       <c r="CF221" s="1" t="s">
-        <v>2728</v>
+        <v>2725</v>
       </c>
       <c r="CH221" s="1" t="s">
-        <v>2729</v>
+        <v>2726</v>
       </c>
       <c r="CI221" s="1" t="s">
-        <v>2730</v>
+        <v>2727</v>
       </c>
       <c r="CJ221" s="1" t="s">
         <v>130</v>
@@ -51654,13 +51553,13 @@
         <v>97</v>
       </c>
       <c r="K222" s="1" t="s">
-        <v>2731</v>
+        <v>2728</v>
       </c>
       <c r="L222" s="1" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="N222" s="1" t="s">
-        <v>2733</v>
+        <v>2730</v>
       </c>
       <c r="O222" s="1" t="s">
         <v>101</v>
@@ -51699,7 +51598,7 @@
         <v>108</v>
       </c>
       <c r="AG222" s="1" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="AH222" s="1" t="s">
         <v>2082</v>
@@ -51750,7 +51649,7 @@
         <v>22</v>
       </c>
       <c r="BD222" s="1" t="s">
-        <v>2735</v>
+        <v>2732</v>
       </c>
       <c r="BG222" s="1" t="s">
         <v>115</v>
@@ -51759,7 +51658,7 @@
         <v>118</v>
       </c>
       <c r="BU222" s="1" t="s">
-        <v>2736</v>
+        <v>2733</v>
       </c>
       <c r="BV222" s="1" t="s">
         <v>122</v>
@@ -51777,13 +51676,13 @@
         <v>102</v>
       </c>
       <c r="CD222" s="1" t="s">
-        <v>2737</v>
+        <v>2734</v>
       </c>
       <c r="CE222" s="1" t="s">
-        <v>2738</v>
+        <v>2735</v>
       </c>
       <c r="CF222" s="1" t="s">
-        <v>2739</v>
+        <v>2736</v>
       </c>
       <c r="CH222" s="1" t="s">
         <v>130</v>
@@ -51827,13 +51726,13 @@
         <v>97</v>
       </c>
       <c r="K223" s="1" t="s">
-        <v>2740</v>
+        <v>2737</v>
       </c>
       <c r="L223" s="1" t="s">
-        <v>2741</v>
+        <v>2738</v>
       </c>
       <c r="N223" s="1" t="s">
-        <v>2742</v>
+        <v>2739</v>
       </c>
       <c r="O223" s="1" t="s">
         <v>101</v>
@@ -51923,13 +51822,13 @@
         <v>22</v>
       </c>
       <c r="BD223" s="1" t="s">
-        <v>2743</v>
+        <v>2740</v>
       </c>
       <c r="BG223" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH223" s="1" t="s">
-        <v>2744</v>
+        <v>2741</v>
       </c>
       <c r="BN223" s="1" t="s">
         <v>118</v>
@@ -51938,7 +51837,7 @@
         <v>107</v>
       </c>
       <c r="BU223" s="1" t="s">
-        <v>2745</v>
+        <v>2742</v>
       </c>
       <c r="BV223" s="1" t="s">
         <v>122</v>
@@ -51959,13 +51858,13 @@
         <v>320</v>
       </c>
       <c r="CE223" s="1" t="s">
-        <v>2746</v>
+        <v>2743</v>
       </c>
       <c r="CF223" s="1" t="s">
-        <v>2747</v>
+        <v>2744</v>
       </c>
       <c r="CH223" s="1" t="s">
-        <v>2748</v>
+        <v>2745</v>
       </c>
       <c r="CI223" s="1" t="s">
         <v>130</v>
@@ -52006,13 +51905,13 @@
         <v>97</v>
       </c>
       <c r="K224" s="1" t="s">
-        <v>2749</v>
+        <v>2746</v>
       </c>
       <c r="L224" s="1" t="s">
-        <v>2750</v>
+        <v>2747</v>
       </c>
       <c r="N224" s="1" t="s">
-        <v>2751</v>
+        <v>2748</v>
       </c>
       <c r="O224" s="1" t="s">
         <v>101</v>
@@ -52099,13 +51998,13 @@
         <v>22</v>
       </c>
       <c r="BD224" s="1" t="s">
-        <v>2752</v>
+        <v>2749</v>
       </c>
       <c r="BG224" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH224" s="1" t="s">
-        <v>2753</v>
+        <v>2750</v>
       </c>
       <c r="BI224" s="1" t="s">
         <v>438</v>
@@ -52120,13 +52019,13 @@
         <v>216</v>
       </c>
       <c r="BS224" s="1" t="s">
-        <v>2754</v>
+        <v>2751</v>
       </c>
       <c r="BT224" s="3">
         <v>34307</v>
       </c>
       <c r="BU224" s="1" t="s">
-        <v>2755</v>
+        <v>2752</v>
       </c>
       <c r="BV224" s="1" t="s">
         <v>122</v>
@@ -52144,16 +52043,16 @@
         <v>102</v>
       </c>
       <c r="CD224" s="1" t="s">
-        <v>2756</v>
+        <v>2753</v>
       </c>
       <c r="CE224" s="1" t="s">
         <v>406</v>
       </c>
       <c r="CF224" s="1" t="s">
-        <v>2757</v>
+        <v>2754</v>
       </c>
       <c r="CH224" s="1" t="s">
-        <v>2758</v>
+        <v>2755</v>
       </c>
       <c r="CI224" s="1" t="s">
         <v>445</v>
@@ -52176,7 +52075,7 @@
         <v>410</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2759</v>
+        <v>2756</v>
       </c>
       <c r="F225" s="1" t="s">
         <v>93</v>
@@ -52188,22 +52087,22 @@
         <v>95</v>
       </c>
       <c r="I225" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="J225" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K225" s="1" t="s">
+        <v>2758</v>
+      </c>
+      <c r="L225" s="1" t="s">
+        <v>2759</v>
+      </c>
+      <c r="M225" s="1" t="s">
+        <v>2760</v>
+      </c>
+      <c r="N225" s="1" t="s">
         <v>2761</v>
-      </c>
-      <c r="L225" s="1" t="s">
-        <v>2762</v>
-      </c>
-      <c r="M225" s="1" t="s">
-        <v>2763</v>
-      </c>
-      <c r="N225" s="1" t="s">
-        <v>2764</v>
       </c>
       <c r="Q225" s="3">
         <v>17060</v>
@@ -52239,13 +52138,13 @@
         <v>42628</v>
       </c>
       <c r="AD225" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="AF225" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG225" s="1" t="s">
-        <v>2766</v>
+        <v>2763</v>
       </c>
       <c r="AH225" s="1" t="s">
         <v>137</v>
@@ -52290,22 +52189,22 @@
         <v>102</v>
       </c>
       <c r="AZ225" s="1" t="s">
+        <v>2764</v>
+      </c>
+      <c r="BB225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC225" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD225" s="1" t="s">
+        <v>2765</v>
+      </c>
+      <c r="BH225" s="1" t="s">
+        <v>2766</v>
+      </c>
+      <c r="BI225" s="1" t="s">
         <v>2767</v>
-      </c>
-      <c r="BB225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC225" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD225" s="1" t="s">
-        <v>2768</v>
-      </c>
-      <c r="BH225" s="1" t="s">
-        <v>2769</v>
-      </c>
-      <c r="BI225" s="1" t="s">
-        <v>2770</v>
       </c>
       <c r="BN225" s="1" t="s">
         <v>118</v>
@@ -52314,7 +52213,7 @@
         <v>107</v>
       </c>
       <c r="BU225" s="1" t="s">
-        <v>2771</v>
+        <v>2768</v>
       </c>
       <c r="BV225" s="1" t="s">
         <v>122</v>
@@ -52323,7 +52222,7 @@
         <v>0</v>
       </c>
       <c r="CA225" s="1" t="s">
-        <v>2772</v>
+        <v>2769</v>
       </c>
       <c r="CB225" s="1" t="s">
         <v>124</v>
@@ -52338,13 +52237,13 @@
         <v>126</v>
       </c>
       <c r="CF225" s="1" t="s">
-        <v>2773</v>
+        <v>2770</v>
       </c>
       <c r="CH225" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="CI225" s="1" t="s">
-        <v>2775</v>
+        <v>2772</v>
       </c>
       <c r="CJ225" s="1" t="s">
         <v>130</v>
@@ -52358,13 +52257,13 @@
         <v>89</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>2776</v>
+        <v>2773</v>
       </c>
       <c r="D226" s="1" t="s">
-        <v>2760</v>
+        <v>2757</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>2777</v>
+        <v>2774</v>
       </c>
       <c r="F226" s="1" t="s">
         <v>102</v>
@@ -52376,22 +52275,22 @@
         <v>95</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>2778</v>
+        <v>2775</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K226" s="1" t="s">
-        <v>2779</v>
+        <v>2776</v>
       </c>
       <c r="L226" s="1" t="s">
-        <v>2780</v>
+        <v>2777</v>
       </c>
       <c r="M226" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N226" s="1" t="s">
-        <v>2781</v>
+        <v>2778</v>
       </c>
       <c r="Q226" s="3">
         <v>26864</v>
@@ -52424,7 +52323,7 @@
         <v>42735</v>
       </c>
       <c r="AD226" s="1" t="s">
-        <v>2782</v>
+        <v>2779</v>
       </c>
       <c r="AF226" s="1" t="s">
         <v>108</v>
@@ -52478,10 +52377,10 @@
         <v>0</v>
       </c>
       <c r="BD226" s="1" t="s">
-        <v>2783</v>
+        <v>2780</v>
       </c>
       <c r="BH226" s="1" t="s">
-        <v>2784</v>
+        <v>2781</v>
       </c>
       <c r="BN226" s="1" t="s">
         <v>118</v>
@@ -52493,13 +52392,13 @@
         <v>216</v>
       </c>
       <c r="BS226" s="1" t="s">
-        <v>2785</v>
+        <v>2782</v>
       </c>
       <c r="BT226" s="3">
         <v>102</v>
       </c>
       <c r="BU226" s="1" t="s">
-        <v>2786</v>
+        <v>2783</v>
       </c>
       <c r="BV226" s="1" t="s">
         <v>122</v>
@@ -52511,7 +52410,7 @@
         <v>112</v>
       </c>
       <c r="CA226" s="1" t="s">
-        <v>2787</v>
+        <v>2784</v>
       </c>
       <c r="CB226" s="1" t="s">
         <v>124</v>
@@ -52520,16 +52419,16 @@
         <v>102</v>
       </c>
       <c r="CD226" s="1" t="s">
-        <v>2788</v>
+        <v>2785</v>
       </c>
       <c r="CE226" s="1" t="s">
-        <v>2789</v>
+        <v>2786</v>
       </c>
       <c r="CF226" s="1" t="s">
-        <v>2790</v>
+        <v>2787</v>
       </c>
       <c r="CH226" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="CI226" s="1" t="s">
         <v>130</v>
@@ -52549,7 +52448,7 @@
         <v>243</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="E227" s="1" t="s">
         <v>92</v>
@@ -52570,16 +52469,16 @@
         <v>97</v>
       </c>
       <c r="K227" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="L227" s="1" t="s">
-        <v>2793</v>
+        <v>2790</v>
       </c>
       <c r="M227" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N227" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="Q227" s="3">
         <v>25379</v>
@@ -52609,7 +52508,7 @@
         <v>39800</v>
       </c>
       <c r="AD227" s="1" t="s">
-        <v>2795</v>
+        <v>2792</v>
       </c>
       <c r="AF227" s="1" t="s">
         <v>229</v>
@@ -52663,10 +52562,10 @@
         <v>0</v>
       </c>
       <c r="BD227" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="BH227" s="1" t="s">
-        <v>2797</v>
+        <v>2794</v>
       </c>
       <c r="BN227" s="1" t="s">
         <v>118</v>
@@ -52678,13 +52577,13 @@
         <v>1592</v>
       </c>
       <c r="BS227" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="BT227" s="3">
         <v>35915</v>
       </c>
       <c r="BU227" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="BV227" s="1" t="s">
         <v>122</v>
@@ -52714,10 +52613,10 @@
         <v>620</v>
       </c>
       <c r="CF227" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="CH227" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="CI227" s="1" t="s">
         <v>130</v>
@@ -52740,7 +52639,7 @@
         <v>91</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2801</v>
+        <v>2798</v>
       </c>
       <c r="F228" s="1" t="s">
         <v>102</v>
@@ -52752,22 +52651,22 @@
         <v>95</v>
       </c>
       <c r="I228" s="1" t="s">
-        <v>2802</v>
+        <v>2799</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K228" s="1" t="s">
-        <v>2803</v>
+        <v>2800</v>
       </c>
       <c r="L228" s="1" t="s">
-        <v>2804</v>
+        <v>2801</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N228" s="1" t="s">
-        <v>2805</v>
+        <v>2802</v>
       </c>
       <c r="Q228" s="3">
         <v>17470</v>
@@ -52797,7 +52696,7 @@
         <v>43100</v>
       </c>
       <c r="AD228" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="AF228" s="1" t="s">
         <v>108</v>
@@ -52854,10 +52753,10 @@
         <v>0</v>
       </c>
       <c r="BD228" s="1" t="s">
-        <v>2806</v>
+        <v>2803</v>
       </c>
       <c r="BH228" s="1" t="s">
-        <v>2807</v>
+        <v>2804</v>
       </c>
       <c r="BN228" s="1" t="s">
         <v>118</v>
@@ -52866,7 +52765,7 @@
         <v>107</v>
       </c>
       <c r="BU228" s="1" t="s">
-        <v>2808</v>
+        <v>2805</v>
       </c>
       <c r="BV228" s="1" t="s">
         <v>122</v>
@@ -52890,16 +52789,16 @@
         <v>102</v>
       </c>
       <c r="CD228" s="1" t="s">
-        <v>2809</v>
+        <v>2806</v>
       </c>
       <c r="CE228" s="1" t="s">
-        <v>2810</v>
+        <v>2807</v>
       </c>
       <c r="CF228" s="1" t="s">
-        <v>2811</v>
+        <v>2808</v>
       </c>
       <c r="CH228" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="CI228" s="1" t="s">
         <v>130</v>
@@ -52922,7 +52821,7 @@
         <v>91</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
       <c r="F229" s="1" t="s">
         <v>102</v>
@@ -52934,22 +52833,22 @@
         <v>95</v>
       </c>
       <c r="I229" s="1" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K229" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="L229" s="1" t="s">
-        <v>2813</v>
+        <v>2810</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N229" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="Q229" s="3">
         <v>23356</v>
@@ -52979,7 +52878,7 @@
         <v>43105</v>
       </c>
       <c r="AD229" s="1" t="s">
-        <v>2815</v>
+        <v>2812</v>
       </c>
       <c r="AF229" s="1" t="s">
         <v>108</v>
@@ -53033,10 +52932,10 @@
         <v>0</v>
       </c>
       <c r="BD229" s="1" t="s">
-        <v>2816</v>
+        <v>2813</v>
       </c>
       <c r="BH229" s="1" t="s">
-        <v>2817</v>
+        <v>2814</v>
       </c>
       <c r="BN229" s="1" t="s">
         <v>118</v>
@@ -53048,13 +52947,13 @@
         <v>103</v>
       </c>
       <c r="BS229" s="1" t="s">
-        <v>2818</v>
+        <v>2815</v>
       </c>
       <c r="BT229" s="3">
         <v>34412</v>
       </c>
       <c r="BU229" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="BV229" s="1" t="s">
         <v>122</v>
@@ -53063,7 +52962,7 @@
         <v>0</v>
       </c>
       <c r="CA229" s="1" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
       <c r="CB229" s="1" t="s">
         <v>124</v>
@@ -53072,16 +52971,16 @@
         <v>102</v>
       </c>
       <c r="CD229" s="1" t="s">
+        <v>2817</v>
+      </c>
+      <c r="CE229" s="1" t="s">
+        <v>2818</v>
+      </c>
+      <c r="CF229" s="1" t="s">
+        <v>2819</v>
+      </c>
+      <c r="CH229" s="1" t="s">
         <v>2820</v>
-      </c>
-      <c r="CE229" s="1" t="s">
-        <v>2821</v>
-      </c>
-      <c r="CF229" s="1" t="s">
-        <v>2822</v>
-      </c>
-      <c r="CH229" s="1" t="s">
-        <v>2823</v>
       </c>
       <c r="CI229" s="1" t="s">
         <v>130</v>
@@ -53104,7 +53003,7 @@
         <v>1778</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
       <c r="F230" s="1" t="s">
         <v>93</v>
@@ -53116,22 +53015,22 @@
         <v>95</v>
       </c>
       <c r="I230" s="1" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K230" s="1" t="s">
-        <v>2824</v>
+        <v>2821</v>
       </c>
       <c r="L230" s="1" t="s">
-        <v>2825</v>
+        <v>2822</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N230" s="1" t="s">
-        <v>2826</v>
+        <v>2823</v>
       </c>
       <c r="Q230" s="3">
         <v>17726</v>
@@ -53167,7 +53066,7 @@
         <v>43312</v>
       </c>
       <c r="AD230" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="AF230" s="1" t="s">
         <v>229</v>
@@ -53218,7 +53117,7 @@
         <v>102</v>
       </c>
       <c r="AZ230" s="1" t="s">
-        <v>2827</v>
+        <v>2824</v>
       </c>
       <c r="BB230" s="1">
         <v>0</v>
@@ -53227,10 +53126,10 @@
         <v>0</v>
       </c>
       <c r="BD230" s="1" t="s">
-        <v>2828</v>
+        <v>2825</v>
       </c>
       <c r="BH230" s="1" t="s">
-        <v>2829</v>
+        <v>2826</v>
       </c>
       <c r="BN230" s="1" t="s">
         <v>118</v>
@@ -53239,7 +53138,7 @@
         <v>107</v>
       </c>
       <c r="BU230" s="1" t="s">
-        <v>2830</v>
+        <v>2827</v>
       </c>
       <c r="BV230" s="1" t="s">
         <v>122</v>
@@ -53248,7 +53147,7 @@
         <v>0</v>
       </c>
       <c r="CA230" s="1" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
       <c r="CB230" s="1" t="s">
         <v>124</v>
@@ -53257,16 +53156,16 @@
         <v>102</v>
       </c>
       <c r="CD230" s="1" t="s">
-        <v>2831</v>
+        <v>2828</v>
       </c>
       <c r="CE230" s="1" t="s">
-        <v>2832</v>
+        <v>2829</v>
       </c>
       <c r="CF230" s="1" t="s">
         <v>874</v>
       </c>
       <c r="CH230" s="1" t="s">
-        <v>2774</v>
+        <v>2771</v>
       </c>
       <c r="CI230" s="1" t="s">
         <v>130</v>
@@ -53289,7 +53188,7 @@
         <v>91</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>2833</v>
+        <v>2830</v>
       </c>
       <c r="F231" s="1" t="s">
         <v>93</v>
@@ -53301,22 +53200,22 @@
         <v>95</v>
       </c>
       <c r="I231" s="1" t="s">
-        <v>2834</v>
+        <v>2831</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K231" s="1" t="s">
-        <v>2835</v>
+        <v>2832</v>
       </c>
       <c r="L231" s="1" t="s">
-        <v>2836</v>
+        <v>2833</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N231" s="1" t="s">
-        <v>2837</v>
+        <v>2834</v>
       </c>
       <c r="Q231" s="3">
         <v>17041</v>
@@ -53343,13 +53242,13 @@
         <v>42735</v>
       </c>
       <c r="AD231" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="AF231" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG231" s="1" t="s">
-        <v>2734</v>
+        <v>2731</v>
       </c>
       <c r="AH231" s="1" t="s">
         <v>2082</v>
@@ -53400,7 +53299,7 @@
         <v>0</v>
       </c>
       <c r="BD231" s="1" t="s">
-        <v>2838</v>
+        <v>2835</v>
       </c>
       <c r="BN231" s="1" t="s">
         <v>118</v>
@@ -53409,7 +53308,7 @@
         <v>107</v>
       </c>
       <c r="BU231" s="1" t="s">
-        <v>2839</v>
+        <v>2836</v>
       </c>
       <c r="BV231" s="1" t="s">
         <v>122</v>
@@ -53421,7 +53320,7 @@
         <v>112</v>
       </c>
       <c r="CA231" s="1" t="s">
-        <v>2840</v>
+        <v>2837</v>
       </c>
       <c r="CB231" s="1" t="s">
         <v>124</v>
@@ -53430,13 +53329,13 @@
         <v>102</v>
       </c>
       <c r="CD231" s="1" t="s">
-        <v>2841</v>
+        <v>2838</v>
       </c>
       <c r="CE231" s="1" t="s">
-        <v>2842</v>
+        <v>2839</v>
       </c>
       <c r="CF231" s="1" t="s">
-        <v>2843</v>
+        <v>2840</v>
       </c>
       <c r="CH231" s="1" t="s">
         <v>130</v>
@@ -53462,7 +53361,7 @@
         <v>1778</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>2844</v>
+        <v>2841</v>
       </c>
       <c r="F232" s="1" t="s">
         <v>102</v>
@@ -53474,22 +53373,22 @@
         <v>95</v>
       </c>
       <c r="I232" s="1" t="s">
-        <v>2845</v>
+        <v>2842</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K232" s="1" t="s">
-        <v>2846</v>
+        <v>2843</v>
       </c>
       <c r="L232" s="1" t="s">
-        <v>2847</v>
+        <v>2844</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N232" s="1" t="s">
-        <v>2848</v>
+        <v>2845</v>
       </c>
       <c r="Q232" s="3">
         <v>30147</v>
@@ -53515,17 +53414,12 @@
       <c r="AA232" s="1">
         <v>0</v>
       </c>
-      <c r="AC232" s="3">
-        <v>43405</v>
-      </c>
-      <c r="AD232" s="1" t="s">
-        <v>2618</v>
-      </c>
+      <c r="AC232" s="3"/>
       <c r="AF232" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG232" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="AH232" s="1" t="s">
         <v>359</v>
@@ -53573,10 +53467,10 @@
         <v>0</v>
       </c>
       <c r="BD232" s="1" t="s">
-        <v>2849</v>
+        <v>2846</v>
       </c>
       <c r="BH232" s="1" t="s">
-        <v>2850</v>
+        <v>2847</v>
       </c>
       <c r="BN232" s="1" t="s">
         <v>118</v>
@@ -53588,13 +53482,13 @@
         <v>103</v>
       </c>
       <c r="BS232" s="1" t="s">
-        <v>2851</v>
+        <v>2848</v>
       </c>
       <c r="BT232" s="3">
         <v>37124</v>
       </c>
       <c r="BU232" s="1" t="s">
-        <v>2852</v>
+        <v>2849</v>
       </c>
       <c r="BV232" s="1" t="s">
         <v>122</v>
@@ -53603,7 +53497,7 @@
         <v>0</v>
       </c>
       <c r="CA232" s="1" t="s">
-        <v>2853</v>
+        <v>2850</v>
       </c>
       <c r="CB232" s="1" t="s">
         <v>124</v>
@@ -53612,16 +53506,16 @@
         <v>102</v>
       </c>
       <c r="CD232" s="1" t="s">
-        <v>2854</v>
+        <v>2851</v>
       </c>
       <c r="CE232" s="1" t="s">
         <v>1114</v>
       </c>
       <c r="CF232" s="1" t="s">
-        <v>2855</v>
+        <v>2852</v>
       </c>
       <c r="CH232" s="1" t="s">
-        <v>2823</v>
+        <v>2820</v>
       </c>
       <c r="CI232" s="1" t="s">
         <v>130</v>
@@ -53644,7 +53538,7 @@
         <v>91</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>2856</v>
+        <v>2853</v>
       </c>
       <c r="F233" s="1" t="s">
         <v>102</v>
@@ -53656,22 +53550,22 @@
         <v>95</v>
       </c>
       <c r="I233" s="1" t="s">
-        <v>2857</v>
+        <v>2854</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K233" s="1" t="s">
-        <v>2858</v>
+        <v>2855</v>
       </c>
       <c r="L233" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N233" s="1" t="s">
-        <v>2860</v>
+        <v>2857</v>
       </c>
       <c r="Q233" s="3">
         <v>17821</v>
@@ -53710,7 +53604,7 @@
         <v>43388</v>
       </c>
       <c r="AD233" s="1" t="s">
-        <v>2765</v>
+        <v>2762</v>
       </c>
       <c r="AF233" s="1" t="s">
         <v>108</v>
@@ -53761,25 +53655,25 @@
         <v>102</v>
       </c>
       <c r="AZ233" s="1" t="s">
+        <v>2858</v>
+      </c>
+      <c r="BB233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BC233" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD233" s="1" t="s">
+        <v>2859</v>
+      </c>
+      <c r="BE233" s="1" t="s">
+        <v>2860</v>
+      </c>
+      <c r="BF233" s="1" t="s">
         <v>2861</v>
       </c>
-      <c r="BB233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BC233" s="1">
-        <v>0</v>
-      </c>
-      <c r="BD233" s="1" t="s">
+      <c r="BH233" s="1" t="s">
         <v>2862</v>
-      </c>
-      <c r="BE233" s="1" t="s">
-        <v>2863</v>
-      </c>
-      <c r="BF233" s="1" t="s">
-        <v>2864</v>
-      </c>
-      <c r="BH233" s="1" t="s">
-        <v>2865</v>
       </c>
       <c r="BN233" s="1" t="s">
         <v>118</v>
@@ -53788,7 +53682,7 @@
         <v>107</v>
       </c>
       <c r="BU233" s="1" t="s">
-        <v>2866</v>
+        <v>2863</v>
       </c>
       <c r="BV233" s="1" t="s">
         <v>122</v>
@@ -53797,7 +53691,7 @@
         <v>0</v>
       </c>
       <c r="CA233" s="1" t="s">
-        <v>2867</v>
+        <v>2864</v>
       </c>
       <c r="CB233" s="1" t="s">
         <v>124</v>
@@ -53806,16 +53700,16 @@
         <v>102</v>
       </c>
       <c r="CD233" s="1" t="s">
-        <v>2868</v>
+        <v>2865</v>
       </c>
       <c r="CE233" s="1" t="s">
-        <v>2869</v>
+        <v>2866</v>
       </c>
       <c r="CF233" s="1" t="s">
         <v>481</v>
       </c>
       <c r="CH233" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="CI233" s="1" t="s">
         <v>130</v>
@@ -53835,7 +53729,7 @@
         <v>243</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>2791</v>
+        <v>2788</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>92</v>
@@ -53856,16 +53750,16 @@
         <v>97</v>
       </c>
       <c r="K234" s="1" t="s">
-        <v>2792</v>
+        <v>2789</v>
       </c>
       <c r="L234" s="1" t="s">
-        <v>2870</v>
+        <v>2867</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N234" s="1" t="s">
-        <v>2794</v>
+        <v>2791</v>
       </c>
       <c r="O234" s="1" t="s">
         <v>101</v>
@@ -53898,7 +53792,7 @@
         <v>43980</v>
       </c>
       <c r="AD234" s="1" t="s">
-        <v>2871</v>
+        <v>2868</v>
       </c>
       <c r="AF234" s="1" t="s">
         <v>108</v>
@@ -53952,10 +53846,10 @@
         <v>20</v>
       </c>
       <c r="BD234" s="1" t="s">
-        <v>2796</v>
+        <v>2793</v>
       </c>
       <c r="BH234" s="1" t="s">
-        <v>2872</v>
+        <v>2869</v>
       </c>
       <c r="BN234" s="1" t="s">
         <v>118</v>
@@ -53967,13 +53861,13 @@
         <v>1592</v>
       </c>
       <c r="BS234" s="1" t="s">
-        <v>2798</v>
+        <v>2795</v>
       </c>
       <c r="BT234" s="3">
         <v>35915</v>
       </c>
       <c r="BU234" s="1" t="s">
-        <v>2799</v>
+        <v>2796</v>
       </c>
       <c r="BV234" s="1" t="s">
         <v>122</v>
@@ -53997,7 +53891,7 @@
         <v>620</v>
       </c>
       <c r="CF234" s="1" t="s">
-        <v>2800</v>
+        <v>2797</v>
       </c>
       <c r="CH234" s="1" t="s">
         <v>1791</v>
@@ -54035,22 +53929,22 @@
         <v>95</v>
       </c>
       <c r="I235" s="1" t="s">
-        <v>2321</v>
+        <v>2320</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K235" s="1" t="s">
-        <v>2873</v>
+        <v>2870</v>
       </c>
       <c r="L235" s="1" t="s">
-        <v>2874</v>
+        <v>2871</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N235" s="1" t="s">
-        <v>2875</v>
+        <v>2872</v>
       </c>
       <c r="O235" s="1" t="s">
         <v>101</v>
@@ -54086,7 +53980,7 @@
         <v>44135</v>
       </c>
       <c r="AD235" s="1" t="s">
-        <v>2876</v>
+        <v>2873</v>
       </c>
       <c r="AF235" s="1" t="s">
         <v>108</v>
@@ -54143,10 +54037,10 @@
         <v>20</v>
       </c>
       <c r="BD235" s="1" t="s">
-        <v>2877</v>
+        <v>2874</v>
       </c>
       <c r="BH235" s="1" t="s">
-        <v>2878</v>
+        <v>2875</v>
       </c>
       <c r="BN235" s="1" t="s">
         <v>118</v>
@@ -54155,7 +54049,7 @@
         <v>107</v>
       </c>
       <c r="BU235" s="1" t="s">
-        <v>2879</v>
+        <v>2876</v>
       </c>
       <c r="BV235" s="1" t="s">
         <v>122</v>
@@ -54164,7 +54058,7 @@
         <v>0</v>
       </c>
       <c r="CA235" s="1" t="s">
-        <v>2329</v>
+        <v>2328</v>
       </c>
       <c r="CB235" s="1" t="s">
         <v>124</v>
@@ -54176,10 +54070,10 @@
         <v>1231</v>
       </c>
       <c r="CE235" s="1" t="s">
-        <v>2880</v>
+        <v>2877</v>
       </c>
       <c r="CF235" s="1" t="s">
-        <v>2881</v>
+        <v>2878</v>
       </c>
       <c r="CH235" s="1" t="s">
         <v>1791</v>
@@ -54196,10 +54090,10 @@
         <v>88</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>1206</v>
@@ -54214,7 +54108,7 @@
         <v>94</v>
       </c>
       <c r="H236" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I236" s="1" t="s">
         <v>1206</v>
@@ -54223,13 +54117,13 @@
         <v>92</v>
       </c>
       <c r="K236" s="1" t="s">
-        <v>2885</v>
+        <v>2882</v>
       </c>
       <c r="L236" s="1" t="s">
-        <v>2886</v>
+        <v>2883</v>
       </c>
       <c r="N236" s="1" t="s">
-        <v>2887</v>
+        <v>2884</v>
       </c>
       <c r="O236" s="1" t="s">
         <v>101</v>
@@ -54283,7 +54177,7 @@
         <v>0</v>
       </c>
       <c r="AN236" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="AO236" s="1">
         <v>0</v>
@@ -54316,19 +54210,19 @@
         <v>22</v>
       </c>
       <c r="BD236" s="1" t="s">
-        <v>2889</v>
+        <v>2886</v>
       </c>
       <c r="BG236" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH236" s="1" t="s">
-        <v>2890</v>
+        <v>2887</v>
       </c>
       <c r="BN236" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU236" s="1" t="s">
-        <v>2891</v>
+        <v>2888</v>
       </c>
       <c r="BV236" s="1" t="s">
         <v>122</v>
@@ -54346,16 +54240,16 @@
         <v>102</v>
       </c>
       <c r="CD236" s="1" t="s">
-        <v>2892</v>
+        <v>2889</v>
       </c>
       <c r="CE236" s="1" t="s">
         <v>298</v>
       </c>
       <c r="CF236" s="1" t="s">
-        <v>2893</v>
+        <v>2890</v>
       </c>
       <c r="CH236" s="1" t="s">
-        <v>2894</v>
+        <v>2891</v>
       </c>
       <c r="CI236" s="1" t="s">
         <v>130</v>
@@ -54369,10 +54263,10 @@
         <v>88</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>1206</v>
@@ -54387,7 +54281,7 @@
         <v>94</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I237" s="1" t="s">
         <v>1206</v>
@@ -54396,13 +54290,13 @@
         <v>92</v>
       </c>
       <c r="K237" s="1" t="s">
-        <v>2895</v>
+        <v>2892</v>
       </c>
       <c r="L237" s="1" t="s">
-        <v>2896</v>
+        <v>2893</v>
       </c>
       <c r="N237" s="1" t="s">
-        <v>2897</v>
+        <v>2894</v>
       </c>
       <c r="O237" s="1" t="s">
         <v>101</v>
@@ -54453,7 +54347,7 @@
         <v>0</v>
       </c>
       <c r="AN237" s="1" t="s">
-        <v>2898</v>
+        <v>2895</v>
       </c>
       <c r="AO237" s="1">
         <v>0</v>
@@ -54489,19 +54383,19 @@
         <v>22</v>
       </c>
       <c r="BD237" s="1" t="s">
-        <v>2899</v>
+        <v>2896</v>
       </c>
       <c r="BG237" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH237" s="1" t="s">
-        <v>2900</v>
+        <v>2897</v>
       </c>
       <c r="BN237" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU237" s="1" t="s">
-        <v>2901</v>
+        <v>2898</v>
       </c>
       <c r="BV237" s="1" t="s">
         <v>122</v>
@@ -54528,10 +54422,10 @@
         <v>1041</v>
       </c>
       <c r="CF237" s="1" t="s">
-        <v>2902</v>
+        <v>2899</v>
       </c>
       <c r="CH237" s="1" t="s">
-        <v>2903</v>
+        <v>2900</v>
       </c>
       <c r="CI237" s="1" t="s">
         <v>130</v>
@@ -54545,10 +54439,10 @@
         <v>88</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D238" s="1" t="s">
         <v>1206</v>
@@ -54563,7 +54457,7 @@
         <v>94</v>
       </c>
       <c r="H238" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I238" s="1" t="s">
         <v>1206</v>
@@ -54572,13 +54466,13 @@
         <v>92</v>
       </c>
       <c r="K238" s="1" t="s">
-        <v>2904</v>
+        <v>2901</v>
       </c>
       <c r="L238" s="1" t="s">
-        <v>2905</v>
+        <v>2902</v>
       </c>
       <c r="N238" s="1" t="s">
-        <v>2906</v>
+        <v>2903</v>
       </c>
       <c r="O238" s="1" t="s">
         <v>101</v>
@@ -54629,7 +54523,7 @@
         <v>0</v>
       </c>
       <c r="AN238" s="1" t="s">
-        <v>2907</v>
+        <v>2904</v>
       </c>
       <c r="AO238" s="1">
         <v>0</v>
@@ -54665,19 +54559,19 @@
         <v>22</v>
       </c>
       <c r="BD238" s="1" t="s">
-        <v>2908</v>
+        <v>2905</v>
       </c>
       <c r="BG238" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH238" s="1" t="s">
-        <v>2909</v>
+        <v>2906</v>
       </c>
       <c r="BN238" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU238" s="1" t="s">
-        <v>2910</v>
+        <v>2907</v>
       </c>
       <c r="BV238" s="1" t="s">
         <v>122</v>
@@ -54698,16 +54592,16 @@
         <v>102</v>
       </c>
       <c r="CD238" s="1" t="s">
+        <v>2908</v>
+      </c>
+      <c r="CE238" s="1" t="s">
+        <v>2909</v>
+      </c>
+      <c r="CF238" s="1" t="s">
+        <v>2910</v>
+      </c>
+      <c r="CH238" s="1" t="s">
         <v>2911</v>
-      </c>
-      <c r="CE238" s="1" t="s">
-        <v>2912</v>
-      </c>
-      <c r="CF238" s="1" t="s">
-        <v>2913</v>
-      </c>
-      <c r="CH238" s="1" t="s">
-        <v>2914</v>
       </c>
       <c r="CI238" s="1" t="s">
         <v>130</v>
@@ -54721,10 +54615,10 @@
         <v>88</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>1206</v>
@@ -54739,7 +54633,7 @@
         <v>94</v>
       </c>
       <c r="H239" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I239" s="1" t="s">
         <v>1206</v>
@@ -54748,13 +54642,13 @@
         <v>92</v>
       </c>
       <c r="K239" s="1" t="s">
-        <v>2915</v>
+        <v>2912</v>
       </c>
       <c r="L239" s="1" t="s">
-        <v>2916</v>
+        <v>2913</v>
       </c>
       <c r="N239" s="1" t="s">
-        <v>2917</v>
+        <v>2914</v>
       </c>
       <c r="O239" s="1" t="s">
         <v>101</v>
@@ -54841,19 +54735,19 @@
         <v>22</v>
       </c>
       <c r="BD239" s="1" t="s">
-        <v>2918</v>
+        <v>2915</v>
       </c>
       <c r="BG239" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH239" s="1" t="s">
-        <v>2919</v>
+        <v>2916</v>
       </c>
       <c r="BN239" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU239" s="1" t="s">
-        <v>2920</v>
+        <v>2917</v>
       </c>
       <c r="BV239" s="1" t="s">
         <v>122</v>
@@ -54874,7 +54768,7 @@
         <v>102</v>
       </c>
       <c r="CD239" s="1" t="s">
-        <v>2921</v>
+        <v>2918</v>
       </c>
       <c r="CE239" s="1" t="s">
         <v>572</v>
@@ -54883,7 +54777,7 @@
         <v>481</v>
       </c>
       <c r="CH239" s="1" t="s">
-        <v>2922</v>
+        <v>2919</v>
       </c>
       <c r="CI239" s="1" t="s">
         <v>130</v>
@@ -54897,10 +54791,10 @@
         <v>88</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>1206</v>
@@ -54915,7 +54809,7 @@
         <v>94</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I240" s="1" t="s">
         <v>1206</v>
@@ -54924,13 +54818,13 @@
         <v>92</v>
       </c>
       <c r="K240" s="1" t="s">
-        <v>2923</v>
+        <v>2920</v>
       </c>
       <c r="L240" s="1" t="s">
-        <v>2924</v>
+        <v>2921</v>
       </c>
       <c r="N240" s="1" t="s">
-        <v>2925</v>
+        <v>2922</v>
       </c>
       <c r="O240" s="1" t="s">
         <v>101</v>
@@ -54984,7 +54878,7 @@
         <v>0</v>
       </c>
       <c r="AN240" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="AO240" s="1">
         <v>0</v>
@@ -55020,19 +54914,19 @@
         <v>22</v>
       </c>
       <c r="BD240" s="1" t="s">
-        <v>2927</v>
+        <v>2924</v>
       </c>
       <c r="BG240" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH240" s="1" t="s">
-        <v>2928</v>
+        <v>2925</v>
       </c>
       <c r="BN240" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU240" s="1" t="s">
-        <v>2929</v>
+        <v>2926</v>
       </c>
       <c r="BV240" s="1" t="s">
         <v>122</v>
@@ -55056,13 +54950,13 @@
         <v>466</v>
       </c>
       <c r="CE240" s="1" t="s">
-        <v>2930</v>
+        <v>2927</v>
       </c>
       <c r="CF240" s="1" t="s">
-        <v>2931</v>
+        <v>2928</v>
       </c>
       <c r="CH240" s="1" t="s">
-        <v>2932</v>
+        <v>2929</v>
       </c>
       <c r="CI240" s="1" t="s">
         <v>130</v>
@@ -55076,10 +54970,10 @@
         <v>88</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>1206</v>
@@ -55094,7 +54988,7 @@
         <v>94</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I241" s="1" t="s">
         <v>1206</v>
@@ -55103,13 +54997,13 @@
         <v>92</v>
       </c>
       <c r="K241" s="1" t="s">
-        <v>2933</v>
+        <v>2930</v>
       </c>
       <c r="L241" s="1" t="s">
-        <v>2934</v>
+        <v>2931</v>
       </c>
       <c r="N241" s="1" t="s">
-        <v>2935</v>
+        <v>2932</v>
       </c>
       <c r="O241" s="1" t="s">
         <v>101</v>
@@ -55196,19 +55090,19 @@
         <v>22</v>
       </c>
       <c r="BD241" s="1" t="s">
-        <v>2936</v>
+        <v>2933</v>
       </c>
       <c r="BG241" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH241" s="1" t="s">
-        <v>2937</v>
+        <v>2934</v>
       </c>
       <c r="BN241" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU241" s="1" t="s">
-        <v>2938</v>
+        <v>2935</v>
       </c>
       <c r="BV241" s="1" t="s">
         <v>122</v>
@@ -55229,16 +55123,16 @@
         <v>102</v>
       </c>
       <c r="CD241" s="1" t="s">
-        <v>2939</v>
+        <v>2936</v>
       </c>
       <c r="CE241" s="1" t="s">
         <v>583</v>
       </c>
       <c r="CF241" s="1" t="s">
-        <v>2940</v>
+        <v>2937</v>
       </c>
       <c r="CH241" s="1" t="s">
-        <v>2941</v>
+        <v>2938</v>
       </c>
       <c r="CI241" s="1" t="s">
         <v>130</v>
@@ -55252,10 +55146,10 @@
         <v>88</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D242" s="1" t="s">
         <v>1206</v>
@@ -55270,7 +55164,7 @@
         <v>94</v>
       </c>
       <c r="H242" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I242" s="1" t="s">
         <v>1206</v>
@@ -55279,13 +55173,13 @@
         <v>92</v>
       </c>
       <c r="K242" s="1" t="s">
-        <v>2942</v>
+        <v>2939</v>
       </c>
       <c r="L242" s="1" t="s">
-        <v>2943</v>
+        <v>2940</v>
       </c>
       <c r="N242" s="1" t="s">
-        <v>2944</v>
+        <v>2941</v>
       </c>
       <c r="O242" s="1" t="s">
         <v>101</v>
@@ -55339,7 +55233,7 @@
         <v>0</v>
       </c>
       <c r="AN242" s="1" t="s">
-        <v>2945</v>
+        <v>2942</v>
       </c>
       <c r="AO242" s="1">
         <v>0</v>
@@ -55375,19 +55269,19 @@
         <v>22</v>
       </c>
       <c r="BD242" s="1" t="s">
-        <v>2946</v>
+        <v>2943</v>
       </c>
       <c r="BG242" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH242" s="1" t="s">
-        <v>2947</v>
+        <v>2944</v>
       </c>
       <c r="BN242" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU242" s="1" t="s">
-        <v>2948</v>
+        <v>2945</v>
       </c>
       <c r="BV242" s="1" t="s">
         <v>122</v>
@@ -55408,16 +55302,16 @@
         <v>102</v>
       </c>
       <c r="CD242" s="1" t="s">
-        <v>2949</v>
+        <v>2946</v>
       </c>
       <c r="CE242" s="1" t="s">
         <v>970</v>
       </c>
       <c r="CF242" s="1" t="s">
-        <v>2950</v>
+        <v>2947</v>
       </c>
       <c r="CH242" s="1" t="s">
-        <v>2951</v>
+        <v>2948</v>
       </c>
       <c r="CI242" s="1" t="s">
         <v>130</v>
@@ -55431,10 +55325,10 @@
         <v>88</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>1206</v>
@@ -55449,7 +55343,7 @@
         <v>94</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I243" s="1" t="s">
         <v>1206</v>
@@ -55458,13 +55352,13 @@
         <v>92</v>
       </c>
       <c r="K243" s="1" t="s">
-        <v>2952</v>
+        <v>2949</v>
       </c>
       <c r="L243" s="1" t="s">
-        <v>2953</v>
+        <v>2950</v>
       </c>
       <c r="N243" s="1" t="s">
-        <v>2954</v>
+        <v>2951</v>
       </c>
       <c r="O243" s="1" t="s">
         <v>101</v>
@@ -55518,7 +55412,7 @@
         <v>0</v>
       </c>
       <c r="AN243" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="AO243" s="1">
         <v>0</v>
@@ -55554,19 +55448,19 @@
         <v>22</v>
       </c>
       <c r="BD243" s="1" t="s">
-        <v>2955</v>
+        <v>2952</v>
       </c>
       <c r="BG243" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH243" s="1" t="s">
-        <v>2956</v>
+        <v>2953</v>
       </c>
       <c r="BN243" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU243" s="1" t="s">
-        <v>2957</v>
+        <v>2954</v>
       </c>
       <c r="BV243" s="1" t="s">
         <v>122</v>
@@ -55590,13 +55484,13 @@
         <v>956</v>
       </c>
       <c r="CE243" s="1" t="s">
-        <v>2958</v>
+        <v>2955</v>
       </c>
       <c r="CF243" s="1" t="s">
-        <v>2959</v>
+        <v>2956</v>
       </c>
       <c r="CH243" s="1" t="s">
-        <v>2960</v>
+        <v>2957</v>
       </c>
       <c r="CI243" s="1" t="s">
         <v>130</v>
@@ -55610,10 +55504,10 @@
         <v>88</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>1206</v>
@@ -55628,7 +55522,7 @@
         <v>94</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I244" s="1" t="s">
         <v>1206</v>
@@ -55637,10 +55531,10 @@
         <v>92</v>
       </c>
       <c r="K244" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="L244" s="1" t="s">
-        <v>2962</v>
+        <v>2959</v>
       </c>
       <c r="O244" s="1" t="s">
         <v>101</v>
@@ -55682,7 +55576,7 @@
         <v>0</v>
       </c>
       <c r="AN244" s="1" t="s">
-        <v>2926</v>
+        <v>2923</v>
       </c>
       <c r="AO244" s="1">
         <v>0</v>
@@ -55718,7 +55612,7 @@
         <v>21</v>
       </c>
       <c r="BD244" s="1" t="s">
-        <v>2963</v>
+        <v>2960</v>
       </c>
       <c r="BN244" s="1" t="s">
         <v>118</v>
@@ -55742,7 +55636,7 @@
         <v>102</v>
       </c>
       <c r="CD244" s="1" t="s">
-        <v>2961</v>
+        <v>2958</v>
       </c>
       <c r="CH244" s="1" t="s">
         <v>130</v>
@@ -55759,10 +55653,10 @@
         <v>88</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>1206</v>
@@ -55777,7 +55671,7 @@
         <v>94</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I245" s="1" t="s">
         <v>1206</v>
@@ -55786,13 +55680,13 @@
         <v>92</v>
       </c>
       <c r="K245" s="1" t="s">
-        <v>2964</v>
+        <v>2961</v>
       </c>
       <c r="L245" s="1" t="s">
         <v>2165</v>
       </c>
       <c r="N245" s="1" t="s">
-        <v>2965</v>
+        <v>2962</v>
       </c>
       <c r="O245" s="1" t="s">
         <v>101</v>
@@ -55843,7 +55737,7 @@
         <v>0</v>
       </c>
       <c r="AN245" s="1" t="s">
-        <v>2966</v>
+        <v>2963</v>
       </c>
       <c r="AO245" s="1">
         <v>0</v>
@@ -55876,19 +55770,19 @@
         <v>22</v>
       </c>
       <c r="BD245" s="1" t="s">
-        <v>2967</v>
+        <v>2964</v>
       </c>
       <c r="BG245" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH245" s="1" t="s">
-        <v>2968</v>
+        <v>2965</v>
       </c>
       <c r="BN245" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU245" s="1" t="s">
-        <v>2969</v>
+        <v>2966</v>
       </c>
       <c r="BV245" s="1" t="s">
         <v>122</v>
@@ -55906,16 +55800,16 @@
         <v>102</v>
       </c>
       <c r="CD245" s="1" t="s">
+        <v>2967</v>
+      </c>
+      <c r="CE245" s="1" t="s">
+        <v>2968</v>
+      </c>
+      <c r="CF245" s="1" t="s">
+        <v>2969</v>
+      </c>
+      <c r="CH245" s="1" t="s">
         <v>2970</v>
-      </c>
-      <c r="CE245" s="1" t="s">
-        <v>2971</v>
-      </c>
-      <c r="CF245" s="1" t="s">
-        <v>2972</v>
-      </c>
-      <c r="CH245" s="1" t="s">
-        <v>2973</v>
       </c>
       <c r="CI245" s="1" t="s">
         <v>130</v>
@@ -55929,10 +55823,10 @@
         <v>88</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>1206</v>
@@ -55947,7 +55841,7 @@
         <v>94</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I246" s="1" t="s">
         <v>1206</v>
@@ -55956,19 +55850,19 @@
         <v>92</v>
       </c>
       <c r="K246" s="1" t="s">
-        <v>2974</v>
+        <v>2971</v>
       </c>
       <c r="L246" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="N246" s="1" t="s">
-        <v>2976</v>
+        <v>2973</v>
       </c>
       <c r="O246" s="1" t="s">
         <v>101</v>
       </c>
       <c r="P246" s="1" t="s">
-        <v>2977</v>
+        <v>2974</v>
       </c>
       <c r="Q246" s="3">
         <v>16452</v>
@@ -56046,19 +55940,19 @@
         <v>22</v>
       </c>
       <c r="BD246" s="1" t="s">
-        <v>2978</v>
+        <v>2975</v>
       </c>
       <c r="BG246" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH246" s="1" t="s">
-        <v>2979</v>
+        <v>2976</v>
       </c>
       <c r="BN246" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU246" s="1" t="s">
-        <v>2980</v>
+        <v>2977</v>
       </c>
       <c r="BV246" s="1" t="s">
         <v>122</v>
@@ -56079,16 +55973,16 @@
         <v>2103</v>
       </c>
       <c r="CD246" s="1" t="s">
+        <v>2978</v>
+      </c>
+      <c r="CE246" s="1" t="s">
+        <v>2979</v>
+      </c>
+      <c r="CF246" s="1" t="s">
+        <v>2980</v>
+      </c>
+      <c r="CH246" s="1" t="s">
         <v>2981</v>
-      </c>
-      <c r="CE246" s="1" t="s">
-        <v>2982</v>
-      </c>
-      <c r="CF246" s="1" t="s">
-        <v>2983</v>
-      </c>
-      <c r="CH246" s="1" t="s">
-        <v>2984</v>
       </c>
       <c r="CI246" s="1" t="s">
         <v>130</v>
@@ -56102,10 +55996,10 @@
         <v>88</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>1206</v>
@@ -56120,7 +56014,7 @@
         <v>94</v>
       </c>
       <c r="H247" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I247" s="1" t="s">
         <v>1206</v>
@@ -56129,13 +56023,13 @@
         <v>92</v>
       </c>
       <c r="K247" s="1" t="s">
-        <v>2985</v>
+        <v>2982</v>
       </c>
       <c r="L247" s="1" t="s">
-        <v>2986</v>
+        <v>2983</v>
       </c>
       <c r="N247" s="1" t="s">
-        <v>2987</v>
+        <v>2984</v>
       </c>
       <c r="O247" s="1" t="s">
         <v>101</v>
@@ -56189,7 +56083,7 @@
         <v>0</v>
       </c>
       <c r="AN247" s="1" t="s">
-        <v>2988</v>
+        <v>2985</v>
       </c>
       <c r="AO247" s="1">
         <v>0</v>
@@ -56225,19 +56119,19 @@
         <v>22</v>
       </c>
       <c r="BD247" s="1" t="s">
-        <v>2989</v>
+        <v>2986</v>
       </c>
       <c r="BG247" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH247" s="1" t="s">
-        <v>2990</v>
+        <v>2987</v>
       </c>
       <c r="BN247" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU247" s="1" t="s">
-        <v>2991</v>
+        <v>2988</v>
       </c>
       <c r="BV247" s="1" t="s">
         <v>122</v>
@@ -56258,16 +56152,16 @@
         <v>102</v>
       </c>
       <c r="CD247" s="1" t="s">
-        <v>2981</v>
+        <v>2978</v>
       </c>
       <c r="CE247" s="1" t="s">
-        <v>2992</v>
+        <v>2989</v>
       </c>
       <c r="CF247" s="1" t="s">
-        <v>2993</v>
+        <v>2990</v>
       </c>
       <c r="CH247" s="1" t="s">
-        <v>2994</v>
+        <v>2991</v>
       </c>
       <c r="CI247" s="1" t="s">
         <v>130</v>
@@ -56281,10 +56175,10 @@
         <v>88</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>1206</v>
@@ -56299,7 +56193,7 @@
         <v>94</v>
       </c>
       <c r="H248" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I248" s="1" t="s">
         <v>1206</v>
@@ -56308,10 +56202,10 @@
         <v>92</v>
       </c>
       <c r="K248" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="L248" s="1" t="s">
-        <v>2996</v>
+        <v>2993</v>
       </c>
       <c r="O248" s="1" t="s">
         <v>101</v>
@@ -56353,7 +56247,7 @@
         <v>0</v>
       </c>
       <c r="AN248" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="AO248" s="1">
         <v>0</v>
@@ -56389,7 +56283,7 @@
         <v>22</v>
       </c>
       <c r="BD248" s="1" t="s">
-        <v>2998</v>
+        <v>2995</v>
       </c>
       <c r="BN248" s="1" t="s">
         <v>118</v>
@@ -56413,7 +56307,7 @@
         <v>102</v>
       </c>
       <c r="CD248" s="1" t="s">
-        <v>2995</v>
+        <v>2992</v>
       </c>
       <c r="CH248" s="1" t="s">
         <v>130</v>
@@ -56430,10 +56324,10 @@
         <v>88</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D249" s="1" t="s">
         <v>1206</v>
@@ -56448,7 +56342,7 @@
         <v>94</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I249" s="1" t="s">
         <v>1206</v>
@@ -56457,10 +56351,10 @@
         <v>92</v>
       </c>
       <c r="K249" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="L249" s="1" t="s">
-        <v>3000</v>
+        <v>2997</v>
       </c>
       <c r="O249" s="1" t="s">
         <v>101</v>
@@ -56502,7 +56396,7 @@
         <v>0</v>
       </c>
       <c r="AN249" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="AO249" s="1">
         <v>0</v>
@@ -56538,7 +56432,7 @@
         <v>22</v>
       </c>
       <c r="BD249" s="1" t="s">
-        <v>3001</v>
+        <v>2998</v>
       </c>
       <c r="BN249" s="1" t="s">
         <v>118</v>
@@ -56562,7 +56456,7 @@
         <v>102</v>
       </c>
       <c r="CD249" s="1" t="s">
-        <v>2999</v>
+        <v>2996</v>
       </c>
       <c r="CH249" s="1" t="s">
         <v>130</v>
@@ -56579,10 +56473,10 @@
         <v>88</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>1206</v>
@@ -56597,7 +56491,7 @@
         <v>94</v>
       </c>
       <c r="H250" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I250" s="1" t="s">
         <v>1206</v>
@@ -56606,13 +56500,13 @@
         <v>92</v>
       </c>
       <c r="K250" s="1" t="s">
-        <v>3002</v>
+        <v>2999</v>
       </c>
       <c r="L250" s="1" t="s">
-        <v>3003</v>
+        <v>3000</v>
       </c>
       <c r="N250" s="1" t="s">
-        <v>3004</v>
+        <v>3001</v>
       </c>
       <c r="O250" s="1" t="s">
         <v>101</v>
@@ -56705,7 +56599,7 @@
         <v>22</v>
       </c>
       <c r="BD250" s="1" t="s">
-        <v>3005</v>
+        <v>3002</v>
       </c>
       <c r="BG250" s="1" t="s">
         <v>115</v>
@@ -56732,10 +56626,10 @@
         <v>102</v>
       </c>
       <c r="CD250" s="1" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="CE250" s="1" t="s">
-        <v>3006</v>
+        <v>3003</v>
       </c>
       <c r="CF250" s="1" t="s">
         <v>205</v>
@@ -56755,10 +56649,10 @@
         <v>88</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>1206</v>
@@ -56773,7 +56667,7 @@
         <v>94</v>
       </c>
       <c r="H251" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I251" s="1" t="s">
         <v>1206</v>
@@ -56782,10 +56676,10 @@
         <v>92</v>
       </c>
       <c r="K251" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="L251" s="1" t="s">
-        <v>3008</v>
+        <v>3005</v>
       </c>
       <c r="O251" s="1" t="s">
         <v>101</v>
@@ -56827,7 +56721,7 @@
         <v>0</v>
       </c>
       <c r="AN251" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="AO251" s="1">
         <v>0</v>
@@ -56863,7 +56757,7 @@
         <v>22</v>
       </c>
       <c r="BD251" s="1" t="s">
-        <v>3009</v>
+        <v>3006</v>
       </c>
       <c r="BN251" s="1" t="s">
         <v>118</v>
@@ -56872,7 +56766,7 @@
         <v>122</v>
       </c>
       <c r="BX251" s="1" t="s">
-        <v>3010</v>
+        <v>3007</v>
       </c>
       <c r="BY251" s="1">
         <v>0</v>
@@ -56890,7 +56784,7 @@
         <v>102</v>
       </c>
       <c r="CD251" s="1" t="s">
-        <v>3007</v>
+        <v>3004</v>
       </c>
       <c r="CH251" s="1" t="s">
         <v>130</v>
@@ -56907,10 +56801,10 @@
         <v>88</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>1206</v>
@@ -56925,7 +56819,7 @@
         <v>94</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I252" s="1" t="s">
         <v>1206</v>
@@ -56934,13 +56828,13 @@
         <v>92</v>
       </c>
       <c r="K252" s="1" t="s">
-        <v>3011</v>
+        <v>3008</v>
       </c>
       <c r="L252" s="1" t="s">
-        <v>3012</v>
+        <v>3009</v>
       </c>
       <c r="N252" s="1" t="s">
-        <v>3013</v>
+        <v>3010</v>
       </c>
       <c r="O252" s="1" t="s">
         <v>101</v>
@@ -56991,7 +56885,7 @@
         <v>0</v>
       </c>
       <c r="AN252" s="1" t="s">
-        <v>3014</v>
+        <v>3011</v>
       </c>
       <c r="AO252" s="1">
         <v>0</v>
@@ -57027,19 +56921,19 @@
         <v>22</v>
       </c>
       <c r="BD252" s="1" t="s">
-        <v>3015</v>
+        <v>3012</v>
       </c>
       <c r="BG252" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH252" s="1" t="s">
-        <v>3016</v>
+        <v>3013</v>
       </c>
       <c r="BN252" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU252" s="1" t="s">
-        <v>3017</v>
+        <v>3014</v>
       </c>
       <c r="BV252" s="1" t="s">
         <v>122</v>
@@ -57060,16 +56954,16 @@
         <v>102</v>
       </c>
       <c r="CD252" s="1" t="s">
-        <v>3018</v>
+        <v>3015</v>
       </c>
       <c r="CE252" s="1" t="s">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="CF252" s="1" t="s">
-        <v>3019</v>
+        <v>3016</v>
       </c>
       <c r="CH252" s="1" t="s">
-        <v>3020</v>
+        <v>3017</v>
       </c>
       <c r="CI252" s="1" t="s">
         <v>130</v>
@@ -57083,10 +56977,10 @@
         <v>88</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>1206</v>
@@ -57101,7 +56995,7 @@
         <v>94</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I253" s="1" t="s">
         <v>1206</v>
@@ -57110,13 +57004,13 @@
         <v>92</v>
       </c>
       <c r="K253" s="1" t="s">
-        <v>3021</v>
+        <v>3018</v>
       </c>
       <c r="L253" s="1" t="s">
-        <v>3022</v>
+        <v>3019</v>
       </c>
       <c r="N253" s="1" t="s">
-        <v>3023</v>
+        <v>3020</v>
       </c>
       <c r="O253" s="1" t="s">
         <v>101</v>
@@ -57146,7 +57040,7 @@
         <v>108</v>
       </c>
       <c r="AG253" s="1" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
       <c r="AH253" s="1" t="s">
         <v>359</v>
@@ -57161,7 +57055,7 @@
         <v>0</v>
       </c>
       <c r="AN253" s="1" t="s">
-        <v>3024</v>
+        <v>3021</v>
       </c>
       <c r="AO253" s="1">
         <v>0</v>
@@ -57191,19 +57085,19 @@
         <v>22</v>
       </c>
       <c r="BD253" s="1" t="s">
-        <v>3025</v>
+        <v>3022</v>
       </c>
       <c r="BG253" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH253" s="1" t="s">
-        <v>3026</v>
+        <v>3023</v>
       </c>
       <c r="BN253" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU253" s="1" t="s">
-        <v>3027</v>
+        <v>3024</v>
       </c>
       <c r="BV253" s="1" t="s">
         <v>122</v>
@@ -57221,16 +57115,16 @@
         <v>102</v>
       </c>
       <c r="CD253" s="1" t="s">
-        <v>3028</v>
+        <v>3025</v>
       </c>
       <c r="CE253" s="1" t="s">
         <v>298</v>
       </c>
       <c r="CF253" s="1" t="s">
-        <v>3029</v>
+        <v>3026</v>
       </c>
       <c r="CH253" s="1" t="s">
-        <v>3030</v>
+        <v>3027</v>
       </c>
       <c r="CI253" s="1" t="s">
         <v>130</v>
@@ -57244,10 +57138,10 @@
         <v>88</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>1206</v>
@@ -57262,7 +57156,7 @@
         <v>94</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I254" s="1" t="s">
         <v>1206</v>
@@ -57271,13 +57165,13 @@
         <v>92</v>
       </c>
       <c r="K254" s="1" t="s">
-        <v>3031</v>
+        <v>3028</v>
       </c>
       <c r="L254" s="1" t="s">
-        <v>3032</v>
+        <v>3029</v>
       </c>
       <c r="N254" s="1" t="s">
-        <v>3033</v>
+        <v>3030</v>
       </c>
       <c r="O254" s="1" t="s">
         <v>101</v>
@@ -57361,19 +57255,19 @@
         <v>22</v>
       </c>
       <c r="BD254" s="1" t="s">
-        <v>3034</v>
+        <v>3031</v>
       </c>
       <c r="BG254" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH254" s="1" t="s">
-        <v>3035</v>
+        <v>3032</v>
       </c>
       <c r="BN254" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU254" s="1" t="s">
-        <v>3036</v>
+        <v>3033</v>
       </c>
       <c r="BV254" s="1" t="s">
         <v>122</v>
@@ -57391,16 +57285,16 @@
         <v>102</v>
       </c>
       <c r="CD254" s="1" t="s">
+        <v>3034</v>
+      </c>
+      <c r="CE254" s="1" t="s">
+        <v>3035</v>
+      </c>
+      <c r="CF254" s="1" t="s">
+        <v>3036</v>
+      </c>
+      <c r="CH254" s="1" t="s">
         <v>3037</v>
-      </c>
-      <c r="CE254" s="1" t="s">
-        <v>3038</v>
-      </c>
-      <c r="CF254" s="1" t="s">
-        <v>3039</v>
-      </c>
-      <c r="CH254" s="1" t="s">
-        <v>3040</v>
       </c>
       <c r="CI254" s="1" t="s">
         <v>130</v>
@@ -57414,10 +57308,10 @@
         <v>88</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>1206</v>
@@ -57432,7 +57326,7 @@
         <v>94</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I255" s="1" t="s">
         <v>1206</v>
@@ -57441,13 +57335,13 @@
         <v>92</v>
       </c>
       <c r="K255" s="1" t="s">
-        <v>3041</v>
+        <v>3038</v>
       </c>
       <c r="L255" s="1" t="s">
-        <v>3042</v>
+        <v>3039</v>
       </c>
       <c r="N255" s="1" t="s">
-        <v>3043</v>
+        <v>3040</v>
       </c>
       <c r="O255" s="1" t="s">
         <v>101</v>
@@ -57534,19 +57428,19 @@
         <v>22</v>
       </c>
       <c r="BD255" s="1" t="s">
-        <v>3044</v>
+        <v>3041</v>
       </c>
       <c r="BG255" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH255" s="1" t="s">
-        <v>3045</v>
+        <v>3042</v>
       </c>
       <c r="BN255" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU255" s="1" t="s">
-        <v>3046</v>
+        <v>3043</v>
       </c>
       <c r="BV255" s="1" t="s">
         <v>122</v>
@@ -57564,16 +57458,16 @@
         <v>102</v>
       </c>
       <c r="CD255" s="1" t="s">
+        <v>3044</v>
+      </c>
+      <c r="CE255" s="1" t="s">
+        <v>3045</v>
+      </c>
+      <c r="CF255" s="1" t="s">
+        <v>3046</v>
+      </c>
+      <c r="CH255" s="1" t="s">
         <v>3047</v>
-      </c>
-      <c r="CE255" s="1" t="s">
-        <v>3048</v>
-      </c>
-      <c r="CF255" s="1" t="s">
-        <v>3049</v>
-      </c>
-      <c r="CH255" s="1" t="s">
-        <v>3050</v>
       </c>
       <c r="CI255" s="1" t="s">
         <v>130</v>
@@ -57587,10 +57481,10 @@
         <v>88</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>1206</v>
@@ -57605,7 +57499,7 @@
         <v>94</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I256" s="1" t="s">
         <v>1206</v>
@@ -57614,13 +57508,13 @@
         <v>92</v>
       </c>
       <c r="K256" s="1" t="s">
-        <v>3051</v>
+        <v>3048</v>
       </c>
       <c r="L256" s="1" t="s">
-        <v>3052</v>
+        <v>3049</v>
       </c>
       <c r="N256" s="1" t="s">
-        <v>3053</v>
+        <v>3050</v>
       </c>
       <c r="O256" s="1" t="s">
         <v>101</v>
@@ -57629,7 +57523,7 @@
         <v>102</v>
       </c>
       <c r="Q256" t="s">
-        <v>3054</v>
+        <v>3051</v>
       </c>
       <c r="R256" s="1" t="s">
         <v>135</v>
@@ -57671,7 +57565,7 @@
         <v>0</v>
       </c>
       <c r="AN256" s="1" t="s">
-        <v>2888</v>
+        <v>2885</v>
       </c>
       <c r="AO256" s="1">
         <v>0</v>
@@ -57704,19 +57598,19 @@
         <v>22</v>
       </c>
       <c r="BD256" s="1" t="s">
-        <v>3055</v>
+        <v>3052</v>
       </c>
       <c r="BG256" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH256" s="1" t="s">
-        <v>3056</v>
+        <v>3053</v>
       </c>
       <c r="BN256" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU256" s="1" t="s">
-        <v>3057</v>
+        <v>3054</v>
       </c>
       <c r="BV256" s="1" t="s">
         <v>122</v>
@@ -57734,16 +57628,16 @@
         <v>102</v>
       </c>
       <c r="CD256" s="1" t="s">
+        <v>3055</v>
+      </c>
+      <c r="CE256" s="1" t="s">
+        <v>3056</v>
+      </c>
+      <c r="CF256" s="1" t="s">
+        <v>3057</v>
+      </c>
+      <c r="CH256" s="1" t="s">
         <v>3058</v>
-      </c>
-      <c r="CE256" s="1" t="s">
-        <v>3059</v>
-      </c>
-      <c r="CF256" s="1" t="s">
-        <v>3060</v>
-      </c>
-      <c r="CH256" s="1" t="s">
-        <v>3061</v>
       </c>
       <c r="CI256" s="1" t="s">
         <v>130</v>
@@ -57784,13 +57678,13 @@
         <v>97</v>
       </c>
       <c r="K257" s="1" t="s">
-        <v>3062</v>
+        <v>3059</v>
       </c>
       <c r="L257" s="1" t="s">
-        <v>3063</v>
+        <v>3060</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>3064</v>
+        <v>3061</v>
       </c>
       <c r="O257" s="1" t="s">
         <v>101</v>
@@ -57883,13 +57777,13 @@
         <v>22</v>
       </c>
       <c r="BD257" s="1" t="s">
-        <v>3065</v>
+        <v>3062</v>
       </c>
       <c r="BG257" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH257" s="1" t="s">
-        <v>3066</v>
+        <v>3063</v>
       </c>
       <c r="BN257" s="1" t="s">
         <v>118</v>
@@ -57898,7 +57792,7 @@
         <v>107</v>
       </c>
       <c r="BU257" s="1" t="s">
-        <v>3067</v>
+        <v>3064</v>
       </c>
       <c r="BV257" s="1" t="s">
         <v>122</v>
@@ -57928,10 +57822,10 @@
         <v>1199</v>
       </c>
       <c r="CF257" s="1" t="s">
-        <v>3068</v>
+        <v>3065</v>
       </c>
       <c r="CH257" s="1" t="s">
-        <v>3069</v>
+        <v>3066</v>
       </c>
       <c r="CI257" s="1" t="s">
         <v>130</v>
@@ -57972,13 +57866,13 @@
         <v>97</v>
       </c>
       <c r="K258" s="1" t="s">
-        <v>3070</v>
+        <v>3067</v>
       </c>
       <c r="L258" s="1" t="s">
-        <v>3071</v>
+        <v>3068</v>
       </c>
       <c r="N258" s="1" t="s">
-        <v>3072</v>
+        <v>3069</v>
       </c>
       <c r="O258" s="1" t="s">
         <v>101</v>
@@ -58068,13 +57962,13 @@
         <v>22</v>
       </c>
       <c r="BD258" s="1" t="s">
-        <v>3073</v>
+        <v>3070</v>
       </c>
       <c r="BG258" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH258" s="1" t="s">
-        <v>3074</v>
+        <v>3071</v>
       </c>
       <c r="BN258" s="1" t="s">
         <v>118</v>
@@ -58089,13 +57983,13 @@
         <v>160</v>
       </c>
       <c r="BS258" s="1" t="s">
-        <v>3075</v>
+        <v>3072</v>
       </c>
       <c r="BT258" s="3">
         <v>5347</v>
       </c>
       <c r="BU258" s="1" t="s">
-        <v>3076</v>
+        <v>3073</v>
       </c>
       <c r="BV258" s="1" t="s">
         <v>122</v>
@@ -58119,16 +58013,16 @@
         <v>102</v>
       </c>
       <c r="CD258" s="1" t="s">
-        <v>3077</v>
+        <v>3074</v>
       </c>
       <c r="CE258" s="1" t="s">
         <v>441</v>
       </c>
       <c r="CF258" s="1" t="s">
-        <v>3078</v>
+        <v>3075</v>
       </c>
       <c r="CH258" s="1" t="s">
-        <v>3079</v>
+        <v>3076</v>
       </c>
       <c r="CI258" s="1" t="s">
         <v>130</v>
@@ -58169,10 +58063,10 @@
         <v>97</v>
       </c>
       <c r="K259" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="L259" s="1" t="s">
-        <v>3081</v>
+        <v>3078</v>
       </c>
       <c r="O259" s="1" t="s">
         <v>101</v>
@@ -58253,7 +58147,7 @@
         <v>22</v>
       </c>
       <c r="BD259" s="1" t="s">
-        <v>3082</v>
+        <v>3079</v>
       </c>
       <c r="BN259" s="1" t="s">
         <v>118</v>
@@ -58283,7 +58177,7 @@
         <v>102</v>
       </c>
       <c r="CD259" s="1" t="s">
-        <v>3080</v>
+        <v>3077</v>
       </c>
       <c r="CH259" s="1" t="s">
         <v>130</v>
@@ -58327,10 +58221,10 @@
         <v>97</v>
       </c>
       <c r="K260" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="L260" s="1" t="s">
-        <v>2732</v>
+        <v>2729</v>
       </c>
       <c r="O260" s="1" t="s">
         <v>101</v>
@@ -58360,10 +58254,10 @@
         <v>108</v>
       </c>
       <c r="AG260" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="AH260" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="AJ260" s="1" t="s">
         <v>111</v>
@@ -58411,7 +58305,7 @@
         <v>21</v>
       </c>
       <c r="BD260" s="1" t="s">
-        <v>3086</v>
+        <v>3083</v>
       </c>
       <c r="BN260" s="1" t="s">
         <v>118</v>
@@ -58441,7 +58335,7 @@
         <v>93</v>
       </c>
       <c r="CD260" s="1" t="s">
-        <v>3083</v>
+        <v>3080</v>
       </c>
       <c r="CH260" s="1" t="s">
         <v>130</v>
@@ -58464,7 +58358,7 @@
         <v>243</v>
       </c>
       <c r="D261" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="E261" s="1" t="s">
         <v>92</v>
@@ -58485,10 +58379,10 @@
         <v>97</v>
       </c>
       <c r="K261" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="L261" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="O261" s="1" t="s">
         <v>101</v>
@@ -58518,10 +58412,10 @@
         <v>108</v>
       </c>
       <c r="AG261" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="AH261" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="AJ261" s="1" t="s">
         <v>111</v>
@@ -58569,7 +58463,7 @@
         <v>21</v>
       </c>
       <c r="BD261" s="1" t="s">
-        <v>3089</v>
+        <v>3086</v>
       </c>
       <c r="BN261" s="1" t="s">
         <v>118</v>
@@ -58587,7 +58481,7 @@
         <v>112</v>
       </c>
       <c r="CA261" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="CB261" s="1" t="s">
         <v>124</v>
@@ -58596,7 +58490,7 @@
         <v>93</v>
       </c>
       <c r="CD261" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CH261" s="1" t="s">
         <v>130</v>
@@ -58622,7 +58516,7 @@
         <v>410</v>
       </c>
       <c r="E262" s="1" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
       <c r="F262" s="1" t="s">
         <v>102</v>
@@ -58634,22 +58528,22 @@
         <v>95</v>
       </c>
       <c r="I262" s="1" t="s">
-        <v>2574</v>
+        <v>2573</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>97</v>
       </c>
       <c r="K262" s="1" t="s">
-        <v>3091</v>
+        <v>3088</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>3092</v>
+        <v>3089</v>
       </c>
       <c r="M262" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N262" s="1" t="s">
-        <v>3093</v>
+        <v>3090</v>
       </c>
       <c r="O262" s="1" t="s">
         <v>101</v>
@@ -58685,13 +58579,13 @@
         <v>43847</v>
       </c>
       <c r="AD262" s="1" t="s">
-        <v>3094</v>
+        <v>3091</v>
       </c>
       <c r="AF262" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG262" s="1" t="s">
-        <v>2396</v>
+        <v>2395</v>
       </c>
       <c r="AH262" s="1" t="s">
         <v>1859</v>
@@ -58736,7 +58630,7 @@
         <v>102</v>
       </c>
       <c r="AZ262" s="1" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="BB262" s="1">
         <v>2</v>
@@ -58745,10 +58639,10 @@
         <v>21</v>
       </c>
       <c r="BD262" s="1" t="s">
-        <v>3095</v>
+        <v>3092</v>
       </c>
       <c r="BH262" s="1" t="s">
-        <v>3096</v>
+        <v>3093</v>
       </c>
       <c r="BN262" s="1" t="s">
         <v>118</v>
@@ -58760,13 +58654,13 @@
         <v>119</v>
       </c>
       <c r="BS262" s="1" t="s">
-        <v>3097</v>
+        <v>3094</v>
       </c>
       <c r="BT262" s="3">
         <v>34808</v>
       </c>
       <c r="BU262" s="1" t="s">
-        <v>3098</v>
+        <v>3095</v>
       </c>
       <c r="BV262" s="1" t="s">
         <v>122</v>
@@ -58775,7 +58669,7 @@
         <v>0</v>
       </c>
       <c r="CA262" s="1" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="CB262" s="1" t="s">
         <v>124</v>
@@ -58784,13 +58678,13 @@
         <v>102</v>
       </c>
       <c r="CD262" s="1" t="s">
-        <v>3099</v>
+        <v>3096</v>
       </c>
       <c r="CE262" s="1" t="s">
-        <v>3100</v>
+        <v>3097</v>
       </c>
       <c r="CF262" s="1" t="s">
-        <v>3101</v>
+        <v>3098</v>
       </c>
       <c r="CH262" s="1" t="s">
         <v>1791</v>
@@ -58807,10 +58701,10 @@
         <v>88</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>1206</v>
@@ -58834,16 +58728,16 @@
         <v>92</v>
       </c>
       <c r="K263" s="1" t="s">
-        <v>3102</v>
+        <v>3099</v>
       </c>
       <c r="L263" s="1" t="s">
-        <v>3103</v>
+        <v>3100</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N263" s="1" t="s">
-        <v>3104</v>
+        <v>3101</v>
       </c>
       <c r="O263" s="1" t="s">
         <v>101</v>
@@ -58897,7 +58791,7 @@
         <v>0</v>
       </c>
       <c r="AN263" s="1" t="s">
-        <v>3105</v>
+        <v>3102</v>
       </c>
       <c r="AO263" s="1">
         <v>0</v>
@@ -58927,7 +58821,7 @@
         <v>102</v>
       </c>
       <c r="AZ263" s="1" t="s">
-        <v>3106</v>
+        <v>3103</v>
       </c>
       <c r="BB263" s="1">
         <v>2</v>
@@ -58936,13 +58830,13 @@
         <v>21</v>
       </c>
       <c r="BD263" s="1" t="s">
-        <v>3107</v>
+        <v>3104</v>
       </c>
       <c r="BN263" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU263" s="1" t="s">
-        <v>3108</v>
+        <v>3105</v>
       </c>
       <c r="BV263" s="1" t="s">
         <v>122</v>
@@ -58960,13 +58854,13 @@
         <v>102</v>
       </c>
       <c r="CD263" s="1" t="s">
-        <v>3109</v>
+        <v>3106</v>
       </c>
       <c r="CE263" s="1" t="s">
-        <v>3110</v>
+        <v>3107</v>
       </c>
       <c r="CF263" s="1" t="s">
-        <v>3111</v>
+        <v>3108</v>
       </c>
       <c r="CH263" s="1" t="s">
         <v>130</v>
@@ -59010,16 +58904,16 @@
         <v>97</v>
       </c>
       <c r="K264" s="1" t="s">
-        <v>3112</v>
+        <v>3109</v>
       </c>
       <c r="L264" s="1" t="s">
-        <v>3113</v>
+        <v>3110</v>
       </c>
       <c r="M264" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N264" s="1" t="s">
-        <v>3114</v>
+        <v>3111</v>
       </c>
       <c r="O264" s="1" t="s">
         <v>101</v>
@@ -59058,7 +58952,7 @@
         <v>44246</v>
       </c>
       <c r="AD264" s="1" t="s">
-        <v>3115</v>
+        <v>3112</v>
       </c>
       <c r="AF264" s="1" t="s">
         <v>108</v>
@@ -59115,10 +59009,10 @@
         <v>21</v>
       </c>
       <c r="BD264" s="1" t="s">
-        <v>3116</v>
+        <v>3113</v>
       </c>
       <c r="BH264" s="1" t="s">
-        <v>3117</v>
+        <v>3114</v>
       </c>
       <c r="BN264" s="1" t="s">
         <v>118</v>
@@ -59127,7 +59021,7 @@
         <v>107</v>
       </c>
       <c r="BU264" s="1" t="s">
-        <v>3118</v>
+        <v>3115</v>
       </c>
       <c r="BV264" s="1" t="s">
         <v>122</v>
@@ -59151,13 +59045,13 @@
         <v>102</v>
       </c>
       <c r="CD264" s="1" t="s">
-        <v>3119</v>
+        <v>3116</v>
       </c>
       <c r="CE264" s="1" t="s">
         <v>144</v>
       </c>
       <c r="CF264" s="1" t="s">
-        <v>3120</v>
+        <v>3117</v>
       </c>
       <c r="CH264" s="1" t="s">
         <v>130</v>
@@ -59201,16 +59095,16 @@
         <v>97</v>
       </c>
       <c r="K265" s="1" t="s">
-        <v>3121</v>
+        <v>3118</v>
       </c>
       <c r="L265" s="1" t="s">
-        <v>3122</v>
+        <v>3119</v>
       </c>
       <c r="M265" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N265" s="1" t="s">
-        <v>3123</v>
+        <v>3120</v>
       </c>
       <c r="O265" s="1" t="s">
         <v>101</v>
@@ -59249,7 +59143,7 @@
         <v>44267</v>
       </c>
       <c r="AD265" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="AF265" s="1" t="s">
         <v>108</v>
@@ -59306,10 +59200,10 @@
         <v>21</v>
       </c>
       <c r="BD265" s="1" t="s">
-        <v>3125</v>
+        <v>3122</v>
       </c>
       <c r="BH265" s="1" t="s">
-        <v>3126</v>
+        <v>3123</v>
       </c>
       <c r="BN265" s="1" t="s">
         <v>118</v>
@@ -59321,13 +59215,13 @@
         <v>119</v>
       </c>
       <c r="BS265" s="1" t="s">
-        <v>3127</v>
+        <v>3124</v>
       </c>
       <c r="BT265" s="3">
         <v>35711</v>
       </c>
       <c r="BU265" s="1" t="s">
-        <v>3128</v>
+        <v>3125</v>
       </c>
       <c r="BV265" s="1" t="s">
         <v>122</v>
@@ -59351,7 +59245,7 @@
         <v>367</v>
       </c>
       <c r="CF265" s="1" t="s">
-        <v>3129</v>
+        <v>3126</v>
       </c>
       <c r="CH265" s="1" t="s">
         <v>130</v>
@@ -59395,16 +59289,16 @@
         <v>97</v>
       </c>
       <c r="K266" s="1" t="s">
-        <v>3130</v>
+        <v>3127</v>
       </c>
       <c r="L266" s="1" t="s">
-        <v>2975</v>
+        <v>2972</v>
       </c>
       <c r="M266" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N266" s="1" t="s">
-        <v>3131</v>
+        <v>3128</v>
       </c>
       <c r="O266" s="1" t="s">
         <v>101</v>
@@ -59440,16 +59334,16 @@
         <v>44255</v>
       </c>
       <c r="AD266" s="1" t="s">
-        <v>3132</v>
+        <v>3129</v>
       </c>
       <c r="AF266" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG266" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="AH266" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="AJ266" s="1" t="s">
         <v>111</v>
@@ -59497,10 +59391,10 @@
         <v>21</v>
       </c>
       <c r="BD266" s="1" t="s">
-        <v>3133</v>
+        <v>3130</v>
       </c>
       <c r="BH266" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BN266" s="1" t="s">
         <v>118</v>
@@ -59509,13 +59403,13 @@
         <v>216</v>
       </c>
       <c r="BS266" s="1" t="s">
-        <v>3135</v>
+        <v>3132</v>
       </c>
       <c r="BT266" s="3">
         <v>2302</v>
       </c>
       <c r="BU266" s="1" t="s">
-        <v>3136</v>
+        <v>3133</v>
       </c>
       <c r="BV266" s="1" t="s">
         <v>122</v>
@@ -59539,13 +59433,13 @@
         <v>93</v>
       </c>
       <c r="CD266" s="1" t="s">
-        <v>3137</v>
+        <v>3134</v>
       </c>
       <c r="CE266" s="1" t="s">
-        <v>3138</v>
+        <v>3135</v>
       </c>
       <c r="CF266" s="1" t="s">
-        <v>3139</v>
+        <v>3136</v>
       </c>
       <c r="CH266" s="1" t="s">
         <v>130</v>
@@ -59589,16 +59483,16 @@
         <v>97</v>
       </c>
       <c r="K267" s="1" t="s">
-        <v>3140</v>
+        <v>3137</v>
       </c>
       <c r="L267" s="1" t="s">
-        <v>3141</v>
+        <v>3138</v>
       </c>
       <c r="M267" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N267" s="1" t="s">
-        <v>3142</v>
+        <v>3139</v>
       </c>
       <c r="O267" s="1" t="s">
         <v>101</v>
@@ -59634,7 +59528,7 @@
         <v>44316</v>
       </c>
       <c r="AD267" s="1" t="s">
-        <v>3143</v>
+        <v>3140</v>
       </c>
       <c r="AF267" s="1" t="s">
         <v>108</v>
@@ -59691,10 +59585,10 @@
         <v>21</v>
       </c>
       <c r="BD267" s="1" t="s">
-        <v>3144</v>
+        <v>3141</v>
       </c>
       <c r="BH267" s="1" t="s">
-        <v>3145</v>
+        <v>3142</v>
       </c>
       <c r="BN267" s="1" t="s">
         <v>118</v>
@@ -59706,13 +59600,13 @@
         <v>216</v>
       </c>
       <c r="BS267" s="1" t="s">
-        <v>3146</v>
+        <v>3143</v>
       </c>
       <c r="BT267" s="3">
         <v>35108</v>
       </c>
       <c r="BU267" s="1" t="s">
-        <v>3147</v>
+        <v>3144</v>
       </c>
       <c r="BV267" s="1" t="s">
         <v>122</v>
@@ -59730,16 +59624,16 @@
         <v>102</v>
       </c>
       <c r="CD267" s="1" t="s">
-        <v>3148</v>
+        <v>3145</v>
       </c>
       <c r="CE267" s="1" t="s">
         <v>1877</v>
       </c>
       <c r="CF267" s="1" t="s">
-        <v>3149</v>
+        <v>3146</v>
       </c>
       <c r="CH267" s="1" t="s">
-        <v>3150</v>
+        <v>3147</v>
       </c>
       <c r="CI267" s="1" t="s">
         <v>130</v>
@@ -59780,13 +59674,13 @@
         <v>97</v>
       </c>
       <c r="K268" s="1" t="s">
-        <v>3151</v>
+        <v>3148</v>
       </c>
       <c r="L268" s="1" t="s">
-        <v>3152</v>
+        <v>3149</v>
       </c>
       <c r="N268" s="1" t="s">
-        <v>3153</v>
+        <v>3150</v>
       </c>
       <c r="O268" s="1" t="s">
         <v>101</v>
@@ -59876,7 +59770,7 @@
         <v>22</v>
       </c>
       <c r="BD268" s="1" t="s">
-        <v>3154</v>
+        <v>3151</v>
       </c>
       <c r="BG268" s="1" t="s">
         <v>115</v>
@@ -59885,7 +59779,7 @@
         <v>118</v>
       </c>
       <c r="BU268" s="1" t="s">
-        <v>3155</v>
+        <v>3152</v>
       </c>
       <c r="BV268" s="1" t="s">
         <v>122</v>
@@ -59906,13 +59800,13 @@
         <v>102</v>
       </c>
       <c r="CD268" s="1" t="s">
-        <v>3156</v>
+        <v>3153</v>
       </c>
       <c r="CE268" s="1" t="s">
-        <v>3157</v>
+        <v>3154</v>
       </c>
       <c r="CF268" s="1" t="s">
-        <v>3158</v>
+        <v>3155</v>
       </c>
       <c r="CH268" s="1" t="s">
         <v>130</v>
@@ -59935,7 +59829,7 @@
         <v>243</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>3087</v>
+        <v>3084</v>
       </c>
       <c r="E269" s="1" t="s">
         <v>92</v>
@@ -59956,16 +59850,16 @@
         <v>97</v>
       </c>
       <c r="K269" s="1" t="s">
-        <v>3159</v>
+        <v>3156</v>
       </c>
       <c r="L269" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N269" s="1" t="s">
-        <v>3161</v>
+        <v>3158</v>
       </c>
       <c r="O269" s="1" t="s">
         <v>101</v>
@@ -60001,16 +59895,16 @@
         <v>44507</v>
       </c>
       <c r="AD269" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="AF269" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG269" s="1" t="s">
-        <v>3084</v>
+        <v>3081</v>
       </c>
       <c r="AH269" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="AI269" s="1" t="s">
         <v>102</v>
@@ -60061,16 +59955,16 @@
         <v>21</v>
       </c>
       <c r="BD269" s="1" t="s">
-        <v>3162</v>
+        <v>3159</v>
       </c>
       <c r="BH269" s="1" t="s">
-        <v>3134</v>
+        <v>3131</v>
       </c>
       <c r="BN269" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU269" s="1" t="s">
-        <v>3163</v>
+        <v>3160</v>
       </c>
       <c r="BV269" s="1" t="s">
         <v>122</v>
@@ -60085,7 +59979,7 @@
         <v>112</v>
       </c>
       <c r="CA269" s="1" t="s">
-        <v>3090</v>
+        <v>3087</v>
       </c>
       <c r="CB269" s="1" t="s">
         <v>124</v>
@@ -60094,13 +59988,13 @@
         <v>93</v>
       </c>
       <c r="CD269" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CE269" s="1" t="s">
-        <v>3164</v>
+        <v>3161</v>
       </c>
       <c r="CF269" s="1" t="s">
-        <v>3165</v>
+        <v>3162</v>
       </c>
       <c r="CH269" s="1" t="s">
         <v>130</v>
@@ -60144,13 +60038,13 @@
         <v>97</v>
       </c>
       <c r="K270" s="1" t="s">
-        <v>3166</v>
+        <v>3163</v>
       </c>
       <c r="L270" s="1" t="s">
-        <v>3167</v>
+        <v>3164</v>
       </c>
       <c r="N270" s="1" t="s">
-        <v>3168</v>
+        <v>3165</v>
       </c>
       <c r="O270" s="1" t="s">
         <v>101</v>
@@ -60237,13 +60131,13 @@
         <v>22</v>
       </c>
       <c r="BD270" s="1" t="s">
-        <v>3169</v>
+        <v>3166</v>
       </c>
       <c r="BG270" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH270" s="1" t="s">
-        <v>3170</v>
+        <v>3167</v>
       </c>
       <c r="BN270" s="1" t="s">
         <v>118</v>
@@ -60255,13 +60149,13 @@
         <v>119</v>
       </c>
       <c r="BS270" s="1" t="s">
-        <v>3171</v>
+        <v>3168</v>
       </c>
       <c r="BT270" s="3">
         <v>35278</v>
       </c>
       <c r="BU270" s="1" t="s">
-        <v>3172</v>
+        <v>3169</v>
       </c>
       <c r="BV270" s="1" t="s">
         <v>122</v>
@@ -60282,16 +60176,16 @@
         <v>102</v>
       </c>
       <c r="CD270" s="1" t="s">
+        <v>3170</v>
+      </c>
+      <c r="CE270" s="1" t="s">
+        <v>3171</v>
+      </c>
+      <c r="CF270" s="1" t="s">
+        <v>3172</v>
+      </c>
+      <c r="CH270" s="1" t="s">
         <v>3173</v>
-      </c>
-      <c r="CE270" s="1" t="s">
-        <v>3174</v>
-      </c>
-      <c r="CF270" s="1" t="s">
-        <v>3175</v>
-      </c>
-      <c r="CH270" s="1" t="s">
-        <v>3176</v>
       </c>
       <c r="CI270" s="1" t="s">
         <v>130</v>
@@ -60305,10 +60199,10 @@
         <v>88</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>2882</v>
+        <v>2879</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>2883</v>
+        <v>2880</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>1206</v>
@@ -60323,7 +60217,7 @@
         <v>94</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>2884</v>
+        <v>2881</v>
       </c>
       <c r="I271" s="1" t="s">
         <v>1206</v>
@@ -60332,13 +60226,13 @@
         <v>92</v>
       </c>
       <c r="K271" s="1" t="s">
-        <v>3177</v>
+        <v>3174</v>
       </c>
       <c r="L271" s="1" t="s">
-        <v>3178</v>
+        <v>3175</v>
       </c>
       <c r="N271" s="1" t="s">
-        <v>3179</v>
+        <v>3176</v>
       </c>
       <c r="O271" s="1" t="s">
         <v>101</v>
@@ -60392,7 +60286,7 @@
         <v>0</v>
       </c>
       <c r="AN271" s="1" t="s">
-        <v>3180</v>
+        <v>3177</v>
       </c>
       <c r="AO271" s="1">
         <v>0</v>
@@ -60428,19 +60322,19 @@
         <v>22</v>
       </c>
       <c r="BD271" s="1" t="s">
-        <v>3181</v>
+        <v>3178</v>
       </c>
       <c r="BG271" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH271" s="1" t="s">
-        <v>3182</v>
+        <v>3179</v>
       </c>
       <c r="BN271" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU271" s="1" t="s">
-        <v>3183</v>
+        <v>3180</v>
       </c>
       <c r="BV271" s="1" t="s">
         <v>122</v>
@@ -60467,10 +60361,10 @@
         <v>1438</v>
       </c>
       <c r="CF271" s="1" t="s">
-        <v>3184</v>
+        <v>3181</v>
       </c>
       <c r="CH271" s="1" t="s">
-        <v>3185</v>
+        <v>3182</v>
       </c>
       <c r="CI271" s="1" t="s">
         <v>130</v>
@@ -60511,10 +60405,10 @@
         <v>97</v>
       </c>
       <c r="K272" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>2859</v>
+        <v>2856</v>
       </c>
       <c r="O272" s="1" t="s">
         <v>101</v>
@@ -60541,10 +60435,10 @@
         <v>108</v>
       </c>
       <c r="AG272" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="AH272" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="AJ272" s="1" t="s">
         <v>111</v>
@@ -60592,7 +60486,7 @@
         <v>22</v>
       </c>
       <c r="BD272" s="1" t="s">
-        <v>3187</v>
+        <v>3184</v>
       </c>
       <c r="BN272" s="1" t="s">
         <v>118</v>
@@ -60616,7 +60510,7 @@
         <v>93</v>
       </c>
       <c r="CD272" s="1" t="s">
-        <v>3088</v>
+        <v>3085</v>
       </c>
       <c r="CH272" s="1" t="s">
         <v>130</v>
@@ -60660,13 +60554,13 @@
         <v>97</v>
       </c>
       <c r="K273" s="1" t="s">
-        <v>3188</v>
+        <v>3185</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>3160</v>
+        <v>3157</v>
       </c>
       <c r="N273" s="1" t="s">
-        <v>3189</v>
+        <v>3186</v>
       </c>
       <c r="O273" s="1" t="s">
         <v>101</v>
@@ -60756,19 +60650,19 @@
         <v>22</v>
       </c>
       <c r="BD273" s="1" t="s">
-        <v>3190</v>
+        <v>3187</v>
       </c>
       <c r="BG273" s="1" t="s">
         <v>115</v>
       </c>
       <c r="BH273" s="1" t="s">
-        <v>3191</v>
+        <v>3188</v>
       </c>
       <c r="BN273" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU273" s="1" t="s">
-        <v>3192</v>
+        <v>3189</v>
       </c>
       <c r="BV273" s="1" t="s">
         <v>122</v>
@@ -60789,16 +60683,16 @@
         <v>102</v>
       </c>
       <c r="CD273" s="1" t="s">
-        <v>3193</v>
+        <v>3190</v>
       </c>
       <c r="CE273" s="1" t="s">
         <v>442</v>
       </c>
       <c r="CF273" s="1" t="s">
-        <v>3194</v>
+        <v>3191</v>
       </c>
       <c r="CH273" s="1" t="s">
-        <v>3195</v>
+        <v>3192</v>
       </c>
       <c r="CI273" s="1" t="s">
         <v>130</v>
@@ -60839,16 +60733,16 @@
         <v>97</v>
       </c>
       <c r="K274" s="1" t="s">
-        <v>2997</v>
+        <v>2994</v>
       </c>
       <c r="L274" s="1" t="s">
-        <v>3196</v>
+        <v>3193</v>
       </c>
       <c r="M274" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N274" s="1" t="s">
-        <v>3197</v>
+        <v>3194</v>
       </c>
       <c r="O274" s="1" t="s">
         <v>101</v>
@@ -60884,7 +60778,7 @@
         <v>44701</v>
       </c>
       <c r="AD274" s="1" t="s">
-        <v>3198</v>
+        <v>3195</v>
       </c>
       <c r="AF274" s="1" t="s">
         <v>108</v>
@@ -60932,7 +60826,7 @@
         <v>102</v>
       </c>
       <c r="AZ274" s="1" t="s">
-        <v>2250</v>
+        <v>2249</v>
       </c>
       <c r="BB274" s="1">
         <v>5</v>
@@ -60941,10 +60835,10 @@
         <v>22</v>
       </c>
       <c r="BD274" s="1" t="s">
-        <v>3199</v>
+        <v>3196</v>
       </c>
       <c r="BH274" s="1" t="s">
-        <v>3200</v>
+        <v>3197</v>
       </c>
       <c r="BN274" s="1" t="s">
         <v>118</v>
@@ -60959,13 +60853,13 @@
         <v>160</v>
       </c>
       <c r="BS274" s="1" t="s">
-        <v>3201</v>
+        <v>3198</v>
       </c>
       <c r="BT274" s="3">
         <v>36825</v>
       </c>
       <c r="BU274" s="1" t="s">
-        <v>3202</v>
+        <v>3199</v>
       </c>
       <c r="BV274" s="1" t="s">
         <v>122</v>
@@ -60989,16 +60883,16 @@
         <v>102</v>
       </c>
       <c r="CD274" s="1" t="s">
-        <v>2536</v>
+        <v>2535</v>
       </c>
       <c r="CE274" s="1" t="s">
-        <v>3203</v>
+        <v>3200</v>
       </c>
       <c r="CF274" s="1" t="s">
-        <v>3204</v>
+        <v>3201</v>
       </c>
       <c r="CH274" s="1" t="s">
-        <v>2252</v>
+        <v>2251</v>
       </c>
       <c r="CI274" s="1" t="s">
         <v>130</v>
@@ -61039,16 +60933,16 @@
         <v>97</v>
       </c>
       <c r="K275" s="1" t="s">
-        <v>2812</v>
+        <v>2809</v>
       </c>
       <c r="L275" s="1" t="s">
-        <v>3205</v>
+        <v>3202</v>
       </c>
       <c r="M275" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>2814</v>
+        <v>2811</v>
       </c>
       <c r="O275" s="1" t="s">
         <v>101</v>
@@ -61084,7 +60978,7 @@
         <v>44733</v>
       </c>
       <c r="AD275" s="1" t="s">
-        <v>3206</v>
+        <v>3203</v>
       </c>
       <c r="AF275" s="1" t="s">
         <v>108</v>
@@ -61141,10 +61035,10 @@
         <v>22</v>
       </c>
       <c r="BD275" s="1" t="s">
-        <v>3207</v>
+        <v>3204</v>
       </c>
       <c r="BH275" s="1" t="s">
-        <v>3208</v>
+        <v>3205</v>
       </c>
       <c r="BN275" s="1" t="s">
         <v>118</v>
@@ -61156,13 +61050,13 @@
         <v>216</v>
       </c>
       <c r="BS275" s="1" t="s">
-        <v>3209</v>
+        <v>3206</v>
       </c>
       <c r="BT275" s="3">
         <v>34412</v>
       </c>
       <c r="BU275" s="1" t="s">
-        <v>2819</v>
+        <v>2816</v>
       </c>
       <c r="BV275" s="1" t="s">
         <v>122</v>
@@ -61183,13 +61077,13 @@
         <v>102</v>
       </c>
       <c r="CD275" s="1" t="s">
-        <v>2820</v>
+        <v>2817</v>
       </c>
       <c r="CE275" s="1" t="s">
-        <v>2821</v>
+        <v>2818</v>
       </c>
       <c r="CF275" s="1" t="s">
-        <v>2822</v>
+        <v>2819</v>
       </c>
       <c r="CH275" s="1" t="s">
         <v>2222</v>
@@ -61233,16 +61127,16 @@
         <v>97</v>
       </c>
       <c r="K276" s="1" t="s">
-        <v>3210</v>
+        <v>3207</v>
       </c>
       <c r="L276" s="1" t="s">
-        <v>3211</v>
+        <v>3208</v>
       </c>
       <c r="M276" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N276" s="1" t="s">
-        <v>3212</v>
+        <v>3209</v>
       </c>
       <c r="O276" s="1" t="s">
         <v>101</v>
@@ -61278,7 +61172,7 @@
         <v>44561</v>
       </c>
       <c r="AD276" s="1" t="s">
-        <v>3124</v>
+        <v>3121</v>
       </c>
       <c r="AF276" s="1" t="s">
         <v>108</v>
@@ -61335,7 +61229,7 @@
         <v>22</v>
       </c>
       <c r="BD276" s="1" t="s">
-        <v>3213</v>
+        <v>3210</v>
       </c>
       <c r="BN276" s="1" t="s">
         <v>118</v>
@@ -61344,13 +61238,13 @@
         <v>216</v>
       </c>
       <c r="BS276" s="1" t="s">
-        <v>3214</v>
+        <v>3211</v>
       </c>
       <c r="BT276" s="3">
         <v>5480</v>
       </c>
       <c r="BU276" s="1" t="s">
-        <v>3215</v>
+        <v>3212</v>
       </c>
       <c r="BV276" s="1" t="s">
         <v>122</v>
@@ -61377,10 +61271,10 @@
         <v>454</v>
       </c>
       <c r="CE276" s="1" t="s">
-        <v>3216</v>
+        <v>3213</v>
       </c>
       <c r="CF276" s="1" t="s">
-        <v>3217</v>
+        <v>3214</v>
       </c>
       <c r="CH276" s="1" t="s">
         <v>130</v>
@@ -61424,16 +61318,16 @@
         <v>97</v>
       </c>
       <c r="K277" s="1" t="s">
-        <v>3218</v>
+        <v>3215</v>
       </c>
       <c r="L277" s="1" t="s">
-        <v>3219</v>
+        <v>3216</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N277" s="1" t="s">
-        <v>3220</v>
+        <v>3217</v>
       </c>
       <c r="O277" s="1" t="s">
         <v>101</v>
@@ -61469,7 +61363,7 @@
         <v>44788</v>
       </c>
       <c r="AD277" s="1" t="s">
-        <v>3221</v>
+        <v>3218</v>
       </c>
       <c r="AF277" s="1" t="s">
         <v>108</v>
@@ -61529,10 +61423,10 @@
         <v>22</v>
       </c>
       <c r="BD277" s="1" t="s">
-        <v>3222</v>
+        <v>3219</v>
       </c>
       <c r="BH277" s="1" t="s">
-        <v>3223</v>
+        <v>3220</v>
       </c>
       <c r="BN277" s="1" t="s">
         <v>118</v>
@@ -61547,13 +61441,13 @@
         <v>160</v>
       </c>
       <c r="BS277" s="1" t="s">
-        <v>3224</v>
+        <v>3221</v>
       </c>
       <c r="BT277" s="3">
         <v>35259</v>
       </c>
       <c r="BU277" s="1" t="s">
-        <v>3225</v>
+        <v>3222</v>
       </c>
       <c r="BV277" s="1" t="s">
         <v>122</v>
@@ -61571,13 +61465,13 @@
         <v>102</v>
       </c>
       <c r="CD277" s="1" t="s">
-        <v>3226</v>
+        <v>3223</v>
       </c>
       <c r="CE277" s="1" t="s">
-        <v>3227</v>
+        <v>3224</v>
       </c>
       <c r="CF277" s="1" t="s">
-        <v>3228</v>
+        <v>3225</v>
       </c>
       <c r="CH277" s="1" t="s">
         <v>130</v>
@@ -61621,16 +61515,16 @@
         <v>97</v>
       </c>
       <c r="K278" s="1" t="s">
-        <v>3229</v>
+        <v>3226</v>
       </c>
       <c r="L278" s="1" t="s">
-        <v>3230</v>
+        <v>3227</v>
       </c>
       <c r="M278" s="1" t="s">
-        <v>2763</v>
+        <v>2760</v>
       </c>
       <c r="N278" s="1" t="s">
-        <v>3231</v>
+        <v>3228</v>
       </c>
       <c r="O278" s="1" t="s">
         <v>101</v>
@@ -61663,16 +61557,16 @@
         <v>44833</v>
       </c>
       <c r="AD278" s="1" t="s">
-        <v>3232</v>
+        <v>3229</v>
       </c>
       <c r="AF278" s="1" t="s">
         <v>108</v>
       </c>
       <c r="AG278" s="1" t="s">
-        <v>3186</v>
+        <v>3183</v>
       </c>
       <c r="AH278" s="1" t="s">
-        <v>3085</v>
+        <v>3082</v>
       </c>
       <c r="AI278" s="1" t="s">
         <v>102</v>
@@ -61723,16 +61617,16 @@
         <v>22</v>
       </c>
       <c r="BD278" s="1" t="s">
-        <v>3233</v>
+        <v>3230</v>
       </c>
       <c r="BH278" s="1" t="s">
-        <v>3234</v>
+        <v>3231</v>
       </c>
       <c r="BN278" s="1" t="s">
         <v>118</v>
       </c>
       <c r="BU278" s="1" t="s">
-        <v>3235</v>
+        <v>3232</v>
       </c>
       <c r="BV278" s="1" t="s">
         <v>122</v>
@@ -61753,13 +61647,13 @@
         <v>93</v>
       </c>
       <c r="CD278" s="1" t="s">
-        <v>3236</v>
+        <v>3233</v>
       </c>
       <c r="CE278" s="1" t="s">
-        <v>3237</v>
+        <v>3234</v>
       </c>
       <c r="CF278" s="1" t="s">
-        <v>3238</v>
+        <v>3235</v>
       </c>
       <c r="CH278" s="1" t="s">
         <v>130</v>
@@ -61772,6 +61666,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:CJ278" xr:uid="{487ADA53-63CF-45AB-842D-5D63B5DCF341}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>